--- a/Отчёт/Second - first version.xlsx
+++ b/Отчёт/Second - first version.xlsx
@@ -1,29 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ислам\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Construction and analysis of algorithms\SortAlgorithms\Отчёт\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88AE4C5F-82BA-4B73-BBE6-4780849BF9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF832C6-9E25-4EF2-9744-58F7843EED8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Second" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="19">
   <si>
     <t>Mode</t>
   </si>
@@ -70,9 +67,6 @@
     <t>From 0 to 5</t>
   </si>
   <si>
-    <t>From 1 to 4100</t>
-  </si>
-  <si>
     <t>Almost Sorted</t>
   </si>
   <si>
@@ -81,12 +75,15 @@
   <si>
     <t>d</t>
   </si>
+  <si>
+    <t>From 0 to 4000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +231,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -744,10 +748,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$2:$B$41</c:f>
+              <c:f>Second!$B$2:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -867,16 +871,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$C$2:$C$41</c:f>
+              <c:f>Second!$C$2:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>22</c:v>
                 </c:pt>
@@ -995,7 +1002,10 @@
                   <c:v>23821</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>19948</c:v>
+                  <c:v>24821</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>25948</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1035,10 +1045,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$2:$B$41</c:f>
+              <c:f>Second!$B$2:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -1158,16 +1168,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$D$2:$D$41</c:f>
+              <c:f>Second!$D$2:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>48</c:v>
                 </c:pt>
@@ -1283,10 +1296,13 @@
                   <c:v>67160</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>74384</c:v>
+                  <c:v>71384</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>62494</c:v>
+                  <c:v>73386</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>72494</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1326,10 +1342,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$2:$B$41</c:f>
+              <c:f>Second!$B$2:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -1449,16 +1465,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$E$2:$E$41</c:f>
+              <c:f>Second!$E$2:$E$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>48</c:v>
                 </c:pt>
@@ -1577,6 +1596,9 @@
                   <c:v>65946</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>66746</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>65444</c:v>
                 </c:pt>
               </c:numCache>
@@ -1617,10 +1639,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$2:$B$41</c:f>
+              <c:f>Second!$B$2:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -1740,16 +1762,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$F$2:$F$41</c:f>
+              <c:f>Second!$F$2:$F$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>49</c:v>
                 </c:pt>
@@ -1868,6 +1893,9 @@
                   <c:v>67023</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>67453</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>64369</c:v>
                 </c:pt>
               </c:numCache>
@@ -1908,10 +1936,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$2:$B$41</c:f>
+              <c:f>Second!$B$2:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -2031,16 +2059,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$G$2:$G$41</c:f>
+              <c:f>Second!$G$2:$G$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44</c:v>
                 </c:pt>
@@ -2159,6 +2190,9 @@
                   <c:v>33532</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>33867</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>33014</c:v>
                 </c:pt>
               </c:numCache>
@@ -2199,10 +2233,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$2:$B$41</c:f>
+              <c:f>Second!$B$2:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -2322,16 +2356,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$H$2:$H$41</c:f>
+              <c:f>Second!$H$2:$H$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>19</c:v>
                 </c:pt>
@@ -2450,6 +2487,9 @@
                   <c:v>5808</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>6408</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>6886</c:v>
                 </c:pt>
               </c:numCache>
@@ -2492,10 +2532,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$2:$B$41</c:f>
+              <c:f>Second!$B$2:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -2615,16 +2655,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$I$2:$I$41</c:f>
+              <c:f>Second!$I$2:$I$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -2743,7 +2786,10 @@
                   <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>30</c:v>
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2785,10 +2831,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$2:$B$41</c:f>
+              <c:f>Second!$B$2:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -2908,16 +2954,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$J$2:$J$41</c:f>
+              <c:f>Second!$J$2:$J$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>28</c:v>
                 </c:pt>
@@ -3036,7 +3085,10 @@
                   <c:v>244</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>143</c:v>
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3078,10 +3130,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$2:$B$41</c:f>
+              <c:f>Second!$B$2:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -3201,16 +3253,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$K$2:$K$41</c:f>
+              <c:f>Second!$K$2:$K$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>49</c:v>
                 </c:pt>
@@ -3329,7 +3384,10 @@
                   <c:v>1236</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1197</c:v>
+                  <c:v>1299</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3371,10 +3429,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$2:$B$41</c:f>
+              <c:f>Second!$B$2:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -3494,16 +3552,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$L$2:$L$41</c:f>
+              <c:f>Second!$L$2:$L$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>13</c:v>
                 </c:pt>
@@ -3622,7 +3683,10 @@
                   <c:v>401</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>341</c:v>
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3664,10 +3728,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$2:$B$41</c:f>
+              <c:f>Second!$B$2:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -3787,16 +3851,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$M$2:$M$41</c:f>
+              <c:f>Second!$M$2:$M$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -3915,7 +3982,10 @@
                   <c:v>17118</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>17086</c:v>
+                  <c:v>17648</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>17788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3957,10 +4027,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$2:$B$41</c:f>
+              <c:f>Second!$B$2:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -4080,16 +4150,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$N$2:$N$41</c:f>
+              <c:f>Second!$N$2:$N$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -4208,6 +4281,9 @@
                   <c:v>952</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>1052</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>1449</c:v>
                 </c:pt>
               </c:numCache>
@@ -4599,8 +4675,21 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>From 0 to 5</a:t>
+              <a:t>From </a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> to </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>4100</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4667,10 +4756,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$42:$B$81</c:f>
+              <c:f>Second!$B$43:$B$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -4790,16 +4879,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$C$42:$C$81</c:f>
+              <c:f>Second!$C$43:$C$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>40</c:v>
                 </c:pt>
@@ -4919,6 +5011,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>20117</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>21444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4958,10 +5053,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$42:$B$81</c:f>
+              <c:f>Second!$B$43:$B$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -5081,16 +5176,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$D$42:$D$81</c:f>
+              <c:f>Second!$D$43:$D$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>72</c:v>
                 </c:pt>
@@ -5210,6 +5308,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>71122</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>72412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5249,10 +5350,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$42:$B$81</c:f>
+              <c:f>Second!$B$43:$B$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -5372,16 +5473,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$E$42:$E$81</c:f>
+              <c:f>Second!$E$43:$E$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>74</c:v>
                 </c:pt>
@@ -5501,6 +5605,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>81613</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>82665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5540,10 +5647,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$42:$B$81</c:f>
+              <c:f>Second!$B$43:$B$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -5663,16 +5770,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$F$42:$F$81</c:f>
+              <c:f>Second!$F$43:$F$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>88</c:v>
                 </c:pt>
@@ -5792,6 +5902,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>75283</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>76876</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5831,10 +5944,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$42:$B$81</c:f>
+              <c:f>Second!$B$43:$B$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -5954,16 +6067,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$G$42:$G$81</c:f>
+              <c:f>Second!$G$43:$G$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>56</c:v>
                 </c:pt>
@@ -6083,6 +6199,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>43890</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6122,10 +6241,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$42:$B$81</c:f>
+              <c:f>Second!$B$43:$B$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -6245,16 +6364,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$H$42:$H$81</c:f>
+              <c:f>Second!$H$43:$H$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>19</c:v>
                 </c:pt>
@@ -6374,6 +6496,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>7572</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6415,10 +6540,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$42:$B$81</c:f>
+              <c:f>Second!$B$43:$B$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -6538,16 +6663,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$I$42:$I$81</c:f>
+              <c:f>Second!$I$43:$I$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>24</c:v>
                 </c:pt>
@@ -6667,6 +6795,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6708,10 +6839,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$42:$B$81</c:f>
+              <c:f>Second!$B$43:$B$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -6831,16 +6962,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$J$42:$J$81</c:f>
+              <c:f>Second!$J$43:$J$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>17</c:v>
                 </c:pt>
@@ -6960,6 +7094,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>265</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7001,10 +7138,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$42:$B$81</c:f>
+              <c:f>Second!$B$43:$B$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -7124,16 +7261,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$K$42:$K$81</c:f>
+              <c:f>Second!$K$43:$K$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>78</c:v>
                 </c:pt>
@@ -7253,6 +7393,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1433</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7294,10 +7437,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$42:$B$81</c:f>
+              <c:f>Second!$B$43:$B$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -7417,16 +7560,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$L$42:$L$81</c:f>
+              <c:f>Second!$L$43:$L$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>34</c:v>
                 </c:pt>
@@ -7546,6 +7692,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7587,10 +7736,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$42:$B$81</c:f>
+              <c:f>Second!$B$43:$B$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -7710,16 +7859,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$M$42:$M$81</c:f>
+              <c:f>Second!$M$43:$M$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
@@ -7839,6 +7991,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>858</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7880,10 +8035,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$42:$B$81</c:f>
+              <c:f>Second!$B$43:$B$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -8003,16 +8158,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$N$42:$N$81</c:f>
+              <c:f>Second!$N$43:$N$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>21</c:v>
                 </c:pt>
@@ -8132,6 +8290,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1110</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1170</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8522,7 +8683,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>From 0 to 5</a:t>
+              <a:t>Almost sorted</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8590,10 +8751,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$82:$B$121</c:f>
+              <c:f>Second!$B$84:$B$124</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -8713,16 +8874,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$C$82:$C$121</c:f>
+              <c:f>Second!$C$84:$C$124</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>53</c:v>
                 </c:pt>
@@ -8842,6 +9006,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>21037</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>22533</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8881,10 +9048,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$82:$B$121</c:f>
+              <c:f>Second!$B$84:$B$124</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -9004,16 +9171,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$D$82:$D$121</c:f>
+              <c:f>Second!$D$84:$D$124</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>72</c:v>
                 </c:pt>
@@ -9133,6 +9303,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>74339</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>75455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9172,10 +9345,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$82:$B$121</c:f>
+              <c:f>Second!$B$84:$B$124</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -9295,16 +9468,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$E$82:$E$121</c:f>
+              <c:f>Second!$E$84:$E$124</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>101</c:v>
                 </c:pt>
@@ -9424,6 +9600,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>75407</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>76655</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9463,10 +9642,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$82:$B$121</c:f>
+              <c:f>Second!$B$84:$B$124</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -9586,16 +9765,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$F$82:$F$121</c:f>
+              <c:f>Second!$F$84:$F$124</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>85</c:v>
                 </c:pt>
@@ -9715,6 +9897,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>73351</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>74534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9754,10 +9939,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$82:$B$121</c:f>
+              <c:f>Second!$B$84:$B$124</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -9877,16 +10062,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$G$82:$G$121</c:f>
+              <c:f>Second!$G$84:$G$124</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>55</c:v>
                 </c:pt>
@@ -10006,6 +10194,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>46128</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10045,10 +10236,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$82:$B$121</c:f>
+              <c:f>Second!$B$84:$B$124</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -10168,16 +10359,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$H$82:$H$121</c:f>
+              <c:f>Second!$H$84:$H$124</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>19</c:v>
                 </c:pt>
@@ -10297,6 +10491,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>7504</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10338,10 +10535,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$82:$B$121</c:f>
+              <c:f>Second!$B$84:$B$124</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -10461,16 +10658,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$I$82:$I$121</c:f>
+              <c:f>Second!$I$84:$I$124</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>78</c:v>
                 </c:pt>
@@ -10590,6 +10790,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10631,10 +10834,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$82:$B$121</c:f>
+              <c:f>Second!$B$84:$B$124</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -10754,16 +10957,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$J$82:$J$121</c:f>
+              <c:f>Second!$J$84:$J$124</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>16</c:v>
                 </c:pt>
@@ -10883,6 +11089,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10924,10 +11133,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$82:$B$121</c:f>
+              <c:f>Second!$B$84:$B$124</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -11047,16 +11256,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$K$82:$K$121</c:f>
+              <c:f>Second!$K$84:$K$124</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>79</c:v>
                 </c:pt>
@@ -11176,6 +11388,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1333</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11217,10 +11432,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$82:$B$121</c:f>
+              <c:f>Second!$B$84:$B$124</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -11340,16 +11555,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$L$82:$L$121</c:f>
+              <c:f>Second!$L$84:$L$124</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>35</c:v>
                 </c:pt>
@@ -11469,6 +11687,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>577</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>612</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11510,10 +11731,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$82:$B$121</c:f>
+              <c:f>Second!$B$84:$B$124</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -11633,16 +11854,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$M$82:$M$121</c:f>
+              <c:f>Second!$M$84:$M$124</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>35</c:v>
                 </c:pt>
@@ -11762,6 +11986,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>650</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11803,10 +12030,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$82:$B$121</c:f>
+              <c:f>Second!$B$84:$B$124</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -11926,16 +12153,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$N$82:$N$121</c:f>
+              <c:f>Second!$N$84:$N$124</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>21</c:v>
                 </c:pt>
@@ -12055,6 +12285,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1458</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1532</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12445,8 +12678,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>From 0 to 5</a:t>
+              <a:t>Reverse</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> sorted</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -12513,10 +12751,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$122:$B$161</c:f>
+              <c:f>Second!$B$125:$B$165</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -12636,16 +12874,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$C$122:$C$161</c:f>
+              <c:f>Second!$C$125:$C$165</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>34</c:v>
                 </c:pt>
@@ -12761,9 +13002,12 @@
                   <c:v>18256</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>22647</c:v>
+                  <c:v>20647</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>18256</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>19955</c:v>
                 </c:pt>
               </c:numCache>
@@ -12804,10 +13048,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$122:$B$161</c:f>
+              <c:f>Second!$B$125:$B$165</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -12927,16 +13171,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$D$122:$D$161</c:f>
+              <c:f>Second!$D$125:$D$165</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>88</c:v>
                 </c:pt>
@@ -13052,9 +13299,12 @@
                   <c:v>65804</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>74339</c:v>
+                  <c:v>66434</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>68568</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>75796</c:v>
                 </c:pt>
               </c:numCache>
@@ -13095,10 +13345,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$122:$B$161</c:f>
+              <c:f>Second!$B$125:$B$165</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -13218,16 +13468,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$E$122:$E$161</c:f>
+              <c:f>Second!$E$125:$E$165</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>67</c:v>
                 </c:pt>
@@ -13346,6 +13599,9 @@
                   <c:v>69681</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>68544</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>72717</c:v>
                 </c:pt>
               </c:numCache>
@@ -13386,10 +13642,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$122:$B$161</c:f>
+              <c:f>Second!$B$125:$B$165</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -13509,16 +13765,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$F$122:$F$161</c:f>
+              <c:f>Second!$F$125:$F$165</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>85</c:v>
                 </c:pt>
@@ -13637,6 +13896,9 @@
                   <c:v>68075</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>67532</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>74790</c:v>
                 </c:pt>
               </c:numCache>
@@ -13677,10 +13939,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$122:$B$161</c:f>
+              <c:f>Second!$B$125:$B$165</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -13800,16 +14062,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$G$122:$G$161</c:f>
+              <c:f>Second!$G$125:$G$165</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>46</c:v>
                 </c:pt>
@@ -13928,6 +14193,9 @@
                   <c:v>41220</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>37611</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>47126</c:v>
                 </c:pt>
               </c:numCache>
@@ -13968,10 +14236,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$122:$B$161</c:f>
+              <c:f>Second!$B$125:$B$165</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -14091,16 +14359,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$H$122:$H$161</c:f>
+              <c:f>Second!$H$125:$H$165</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>37</c:v>
                 </c:pt>
@@ -14219,6 +14490,9 @@
                   <c:v>7131</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>7275</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>7667</c:v>
                 </c:pt>
               </c:numCache>
@@ -14261,10 +14535,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$122:$B$161</c:f>
+              <c:f>Second!$B$125:$B$165</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -14384,16 +14658,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$I$122:$I$161</c:f>
+              <c:f>Second!$I$125:$I$165</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>69</c:v>
                 </c:pt>
@@ -14512,6 +14789,9 @@
                   <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
@@ -14554,10 +14834,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$122:$B$161</c:f>
+              <c:f>Second!$B$125:$B$165</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -14677,16 +14957,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$J$122:$J$161</c:f>
+              <c:f>Second!$J$125:$J$165</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>37</c:v>
                 </c:pt>
@@ -14805,6 +15088,9 @@
                   <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>255</c:v>
                 </c:pt>
               </c:numCache>
@@ -14847,10 +15133,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$122:$B$161</c:f>
+              <c:f>Second!$B$125:$B$165</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -14970,16 +15256,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$K$122:$K$161</c:f>
+              <c:f>Second!$K$125:$K$165</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>60</c:v>
                 </c:pt>
@@ -15098,6 +15387,9 @@
                   <c:v>1418</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>1375</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>1085</c:v>
                 </c:pt>
               </c:numCache>
@@ -15140,10 +15432,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$122:$B$161</c:f>
+              <c:f>Second!$B$125:$B$165</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -15263,16 +15555,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$L$122:$L$161</c:f>
+              <c:f>Second!$L$125:$L$165</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>35</c:v>
                 </c:pt>
@@ -15391,6 +15686,9 @@
                   <c:v>552</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>555</c:v>
                 </c:pt>
               </c:numCache>
@@ -15433,10 +15731,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$122:$B$161</c:f>
+              <c:f>Second!$B$125:$B$165</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -15556,16 +15854,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$M$122:$M$161</c:f>
+              <c:f>Second!$M$125:$M$165</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>34</c:v>
                 </c:pt>
@@ -15684,6 +15985,9 @@
                   <c:v>663</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>701</c:v>
                 </c:pt>
               </c:numCache>
@@ -15726,10 +16030,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Second!$B$122:$B$161</c:f>
+              <c:f>Second!$B$125:$B$165</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -15849,16 +16153,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Second!$N$122:$N$161</c:f>
+              <c:f>Second!$N$125:$N$165</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>36</c:v>
                 </c:pt>
@@ -15971,12 +16278,15 @@
                   <c:v>943</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1168</c:v>
+                  <c:v>868</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>876</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>1048</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>1187</c:v>
                 </c:pt>
               </c:numCache>
@@ -18714,19 +19024,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="First"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -19023,11 +19320,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN161"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AN165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="T98" sqref="T98"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20759,7 +21056,7 @@
         <v>23821</v>
       </c>
       <c r="D40">
-        <v>74384</v>
+        <v>71384</v>
       </c>
       <c r="E40">
         <v>65946</v>
@@ -20800,920 +21097,920 @@
         <v>4000</v>
       </c>
       <c r="C41">
-        <v>19948</v>
+        <v>24821</v>
       </c>
       <c r="D41">
-        <v>62494</v>
+        <v>73386</v>
       </c>
       <c r="E41">
-        <v>65444</v>
+        <v>66746</v>
       </c>
       <c r="F41">
-        <v>64369</v>
+        <v>67453</v>
       </c>
       <c r="G41">
-        <v>33014</v>
+        <v>33867</v>
       </c>
       <c r="H41">
-        <v>6886</v>
+        <v>6408</v>
       </c>
       <c r="I41">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="J41">
-        <v>143</v>
+        <v>214</v>
       </c>
       <c r="K41">
-        <v>1197</v>
+        <v>1299</v>
       </c>
       <c r="L41">
-        <v>341</v>
+        <v>421</v>
       </c>
       <c r="M41">
-        <v>17086</v>
+        <v>17648</v>
       </c>
       <c r="N41">
-        <v>1449</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B42">
-        <v>100</v>
+        <v>4100</v>
       </c>
       <c r="C42">
-        <v>40</v>
+        <v>25948</v>
       </c>
       <c r="D42">
-        <v>72</v>
+        <v>72494</v>
       </c>
       <c r="E42">
-        <v>74</v>
+        <v>65444</v>
       </c>
       <c r="F42">
-        <v>88</v>
+        <v>64369</v>
       </c>
       <c r="G42">
-        <v>56</v>
+        <v>33014</v>
       </c>
       <c r="H42">
-        <v>19</v>
+        <v>6886</v>
       </c>
       <c r="I42">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="J42">
-        <v>17</v>
+        <v>254</v>
       </c>
       <c r="K42">
-        <v>78</v>
+        <v>1324</v>
       </c>
       <c r="L42">
-        <v>34</v>
+        <v>436</v>
       </c>
       <c r="M42">
-        <v>15</v>
+        <v>17788</v>
       </c>
       <c r="N42">
-        <v>21</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43">
+        <v>100</v>
+      </c>
+      <c r="C43">
+        <v>40</v>
+      </c>
+      <c r="D43">
+        <v>72</v>
+      </c>
+      <c r="E43">
+        <v>74</v>
+      </c>
+      <c r="F43">
+        <v>88</v>
+      </c>
+      <c r="G43">
+        <v>56</v>
+      </c>
+      <c r="H43">
+        <v>19</v>
+      </c>
+      <c r="I43">
+        <v>24</v>
+      </c>
+      <c r="J43">
+        <v>17</v>
+      </c>
+      <c r="K43">
+        <v>78</v>
+      </c>
+      <c r="L43">
+        <v>34</v>
+      </c>
+      <c r="M43">
         <v>15</v>
       </c>
-      <c r="B43">
-        <v>200</v>
-      </c>
-      <c r="C43">
-        <v>102</v>
-      </c>
-      <c r="D43">
-        <v>174</v>
-      </c>
-      <c r="E43">
-        <v>172</v>
-      </c>
-      <c r="F43">
-        <v>284</v>
-      </c>
-      <c r="G43">
-        <v>144</v>
-      </c>
-      <c r="H43">
-        <v>72</v>
-      </c>
-      <c r="I43">
-        <v>68</v>
-      </c>
-      <c r="J43">
-        <v>39</v>
-      </c>
-      <c r="K43">
-        <v>94</v>
-      </c>
-      <c r="L43">
-        <v>46</v>
-      </c>
-      <c r="M43">
-        <v>55</v>
-      </c>
       <c r="N43">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B44">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C44">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="D44">
-        <v>370</v>
+        <v>174</v>
       </c>
       <c r="E44">
-        <v>360</v>
+        <v>172</v>
       </c>
       <c r="F44">
-        <v>514</v>
+        <v>284</v>
       </c>
       <c r="G44">
-        <v>216</v>
+        <v>144</v>
       </c>
       <c r="H44">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="I44">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="J44">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="K44">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="L44">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="M44">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="N44">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B45">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="C45">
-        <v>282</v>
+        <v>136</v>
       </c>
       <c r="D45">
-        <v>653</v>
+        <v>370</v>
       </c>
       <c r="E45">
-        <v>654</v>
+        <v>360</v>
       </c>
       <c r="F45">
-        <v>617</v>
+        <v>514</v>
       </c>
       <c r="G45">
-        <v>516</v>
+        <v>216</v>
       </c>
       <c r="H45">
-        <v>258</v>
+        <v>128</v>
       </c>
       <c r="I45">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J45">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K45">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="L45">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="M45">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="N45">
-        <v>131</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B46">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="C46">
-        <v>534</v>
+        <v>282</v>
       </c>
       <c r="D46">
-        <v>1134</v>
+        <v>653</v>
       </c>
       <c r="E46">
-        <v>1007</v>
+        <v>654</v>
       </c>
       <c r="F46">
-        <v>956</v>
+        <v>617</v>
       </c>
       <c r="G46">
-        <v>729</v>
+        <v>516</v>
       </c>
       <c r="H46">
-        <v>164</v>
+        <v>258</v>
       </c>
       <c r="I46">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="J46">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="K46">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="L46">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="M46">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="N46">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B47">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="C47">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="D47">
-        <v>1655</v>
+        <v>1134</v>
       </c>
       <c r="E47">
-        <v>1305</v>
+        <v>1007</v>
       </c>
       <c r="F47">
-        <v>1514</v>
+        <v>956</v>
       </c>
       <c r="G47">
-        <v>1362</v>
+        <v>729</v>
       </c>
       <c r="H47">
-        <v>244</v>
+        <v>164</v>
       </c>
       <c r="I47">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J47">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K47">
-        <v>283</v>
+        <v>165</v>
       </c>
       <c r="L47">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="M47">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="N47">
-        <v>134</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B48">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C48">
-        <v>624</v>
+        <v>527</v>
       </c>
       <c r="D48">
-        <v>1839</v>
+        <v>1655</v>
       </c>
       <c r="E48">
-        <v>2323</v>
+        <v>1305</v>
       </c>
       <c r="F48">
-        <v>2085</v>
+        <v>1514</v>
       </c>
       <c r="G48">
-        <v>1326</v>
+        <v>1362</v>
       </c>
       <c r="H48">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="I48">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="J48">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K48">
-        <v>214</v>
+        <v>283</v>
       </c>
       <c r="L48">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M48">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="N48">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B49">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="C49">
-        <v>874</v>
+        <v>624</v>
       </c>
       <c r="D49">
-        <v>2604</v>
+        <v>1839</v>
       </c>
       <c r="E49">
-        <v>2616</v>
+        <v>2323</v>
       </c>
       <c r="F49">
-        <v>2772</v>
+        <v>2085</v>
       </c>
       <c r="G49">
-        <v>2032</v>
+        <v>1326</v>
       </c>
       <c r="H49">
-        <v>743</v>
+        <v>282</v>
       </c>
       <c r="I49">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="J49">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K49">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="L49">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="M49">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="N49">
-        <v>301</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B50">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="C50">
-        <v>1598</v>
+        <v>874</v>
       </c>
       <c r="D50">
-        <v>2920</v>
+        <v>2604</v>
       </c>
       <c r="E50">
-        <v>3037</v>
+        <v>2616</v>
       </c>
       <c r="F50">
-        <v>3384</v>
+        <v>2772</v>
       </c>
       <c r="G50">
-        <v>2058</v>
+        <v>2032</v>
       </c>
       <c r="H50">
-        <v>410</v>
+        <v>743</v>
       </c>
       <c r="I50">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J50">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="K50">
-        <v>311</v>
+        <v>244</v>
       </c>
       <c r="L50">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="M50">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="N50">
-        <v>226</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B51">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="C51">
-        <v>1374</v>
+        <v>1598</v>
       </c>
       <c r="D51">
-        <v>4084</v>
+        <v>2920</v>
       </c>
       <c r="E51">
-        <v>4323</v>
+        <v>3037</v>
       </c>
       <c r="F51">
-        <v>3734</v>
+        <v>3384</v>
       </c>
       <c r="G51">
-        <v>2691</v>
+        <v>2058</v>
       </c>
       <c r="H51">
-        <v>575</v>
+        <v>410</v>
       </c>
       <c r="I51">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J51">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="K51">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="L51">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="M51">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="N51">
-        <v>309</v>
+        <v>226</v>
       </c>
     </row>
     <row r="52" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B52">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="C52">
-        <v>1578</v>
+        <v>1374</v>
       </c>
       <c r="D52">
-        <v>4560</v>
+        <v>4084</v>
       </c>
       <c r="E52">
-        <v>5559</v>
+        <v>4323</v>
       </c>
       <c r="F52">
-        <v>4359</v>
+        <v>3734</v>
       </c>
       <c r="G52">
-        <v>3381</v>
+        <v>2691</v>
       </c>
       <c r="H52">
-        <v>673</v>
+        <v>575</v>
       </c>
       <c r="I52">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J52">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="K52">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="L52">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="M52">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="N52">
-        <v>299</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B53">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="C53">
-        <v>1801</v>
+        <v>1578</v>
       </c>
       <c r="D53">
-        <v>5881</v>
+        <v>4560</v>
       </c>
       <c r="E53">
-        <v>6542</v>
+        <v>5559</v>
       </c>
       <c r="F53">
-        <v>6357</v>
+        <v>4359</v>
       </c>
       <c r="G53">
-        <v>4319</v>
+        <v>3381</v>
       </c>
       <c r="H53">
-        <v>834</v>
+        <v>673</v>
       </c>
       <c r="I53">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J53">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="K53">
-        <v>403</v>
+        <v>316</v>
       </c>
       <c r="L53">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="M53">
-        <v>188</v>
+        <v>136</v>
       </c>
       <c r="N53">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="54" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B54">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="C54">
-        <v>2362</v>
+        <v>1801</v>
       </c>
       <c r="D54">
-        <v>7922</v>
+        <v>5881</v>
       </c>
       <c r="E54">
-        <v>6444</v>
+        <v>6542</v>
       </c>
       <c r="F54">
-        <v>6941</v>
+        <v>6357</v>
       </c>
       <c r="G54">
-        <v>3948</v>
+        <v>4319</v>
       </c>
       <c r="H54">
-        <v>1008</v>
+        <v>834</v>
       </c>
       <c r="I54">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="J54">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K54">
-        <v>483</v>
+        <v>403</v>
       </c>
       <c r="L54">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M54">
-        <v>293</v>
+        <v>188</v>
       </c>
       <c r="N54">
-        <v>498</v>
+        <v>296</v>
       </c>
     </row>
     <row r="55" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B55">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="C55">
-        <v>2582</v>
+        <v>2362</v>
       </c>
       <c r="D55">
-        <v>7488</v>
+        <v>7922</v>
       </c>
       <c r="E55">
-        <v>8810</v>
+        <v>6444</v>
       </c>
       <c r="F55">
-        <v>7976</v>
+        <v>6941</v>
       </c>
       <c r="G55">
-        <v>6080</v>
+        <v>3948</v>
       </c>
       <c r="H55">
-        <v>1106</v>
+        <v>1008</v>
       </c>
       <c r="I55">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J55">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K55">
-        <v>531</v>
+        <v>483</v>
       </c>
       <c r="L55">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="M55">
-        <v>193</v>
+        <v>293</v>
       </c>
       <c r="N55">
-        <v>318</v>
+        <v>498</v>
       </c>
     </row>
     <row r="56" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B56">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="C56">
-        <v>3352</v>
+        <v>2582</v>
       </c>
       <c r="D56">
-        <v>8666</v>
+        <v>7488</v>
       </c>
       <c r="E56">
-        <v>9739</v>
+        <v>8810</v>
       </c>
       <c r="F56">
-        <v>9489</v>
+        <v>7976</v>
       </c>
       <c r="G56">
-        <v>5075</v>
+        <v>6080</v>
       </c>
       <c r="H56">
-        <v>915</v>
+        <v>1106</v>
       </c>
       <c r="I56">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J56">
-        <v>228</v>
+        <v>88</v>
       </c>
       <c r="K56">
-        <v>356</v>
+        <v>531</v>
       </c>
       <c r="L56">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="M56">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="N56">
-        <v>266</v>
-      </c>
-      <c r="AN56" t="s">
-        <v>18</v>
+        <v>318</v>
       </c>
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B57">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="C57">
-        <v>3487</v>
+        <v>3352</v>
       </c>
       <c r="D57">
-        <v>11947</v>
+        <v>8666</v>
       </c>
       <c r="E57">
-        <v>9990</v>
+        <v>9739</v>
       </c>
       <c r="F57">
-        <v>10810</v>
+        <v>9489</v>
       </c>
       <c r="G57">
-        <v>6503</v>
+        <v>5075</v>
       </c>
       <c r="H57">
-        <v>1532</v>
+        <v>915</v>
       </c>
       <c r="I57">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J57">
-        <v>106</v>
+        <v>228</v>
       </c>
       <c r="K57">
-        <v>516</v>
+        <v>356</v>
       </c>
       <c r="L57">
-        <v>232</v>
+        <v>159</v>
       </c>
       <c r="M57">
-        <v>264</v>
+        <v>168</v>
       </c>
       <c r="N57">
-        <v>409</v>
+        <v>266</v>
+      </c>
+      <c r="AN57" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B58">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="C58">
-        <v>3810</v>
+        <v>3487</v>
       </c>
       <c r="D58">
-        <v>12409</v>
+        <v>11947</v>
       </c>
       <c r="E58">
-        <v>14438</v>
+        <v>9990</v>
       </c>
       <c r="F58">
-        <v>12706</v>
+        <v>10810</v>
       </c>
       <c r="G58">
-        <v>8029</v>
+        <v>6503</v>
       </c>
       <c r="H58">
-        <v>1687</v>
+        <v>1532</v>
       </c>
       <c r="I58">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J58">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K58">
-        <v>557</v>
+        <v>516</v>
       </c>
       <c r="L58">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="M58">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="N58">
-        <v>372</v>
+        <v>409</v>
       </c>
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B59">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="C59">
-        <v>5248</v>
+        <v>3810</v>
       </c>
       <c r="D59">
-        <v>17007</v>
+        <v>12409</v>
       </c>
       <c r="E59">
-        <v>14077</v>
+        <v>14438</v>
       </c>
       <c r="F59">
-        <v>13893</v>
+        <v>12706</v>
       </c>
       <c r="G59">
-        <v>9262</v>
+        <v>8029</v>
       </c>
       <c r="H59">
-        <v>1857</v>
+        <v>1687</v>
       </c>
       <c r="I59">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J59">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K59">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="L59">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="M59">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="N59">
-        <v>423</v>
+        <v>372</v>
       </c>
     </row>
     <row r="60" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B60">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="C60">
-        <v>5053</v>
+        <v>5248</v>
       </c>
       <c r="D60">
-        <v>15996</v>
+        <v>17007</v>
       </c>
       <c r="E60">
-        <v>15277</v>
+        <v>14077</v>
       </c>
       <c r="F60">
-        <v>16024</v>
+        <v>13893</v>
       </c>
       <c r="G60">
-        <v>10786</v>
+        <v>9262</v>
       </c>
       <c r="H60">
-        <v>1811</v>
+        <v>1857</v>
       </c>
       <c r="I60">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J60">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="K60">
-        <v>629</v>
+        <v>550</v>
       </c>
       <c r="L60">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="M60">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N60">
-        <v>541</v>
+        <v>423</v>
       </c>
     </row>
     <row r="61" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B61">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="C61">
-        <v>6037</v>
+        <v>5053</v>
       </c>
       <c r="D61">
-        <v>15640</v>
+        <v>15996</v>
       </c>
       <c r="E61">
-        <v>16034</v>
+        <v>15277</v>
       </c>
       <c r="F61">
-        <v>16138</v>
+        <v>16024</v>
       </c>
       <c r="G61">
-        <v>11416</v>
+        <v>10786</v>
       </c>
       <c r="H61">
-        <v>2245</v>
+        <v>1811</v>
       </c>
       <c r="I61">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="J61">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="K61">
-        <v>659</v>
+        <v>629</v>
       </c>
       <c r="L61">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="M61">
-        <v>381</v>
+        <v>275</v>
       </c>
       <c r="N61">
         <v>541</v>
@@ -21721,4405 +22018,4582 @@
     </row>
     <row r="62" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B62">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="C62">
-        <v>5870</v>
+        <v>6037</v>
       </c>
       <c r="D62">
-        <v>20692</v>
+        <v>15640</v>
       </c>
       <c r="E62">
-        <v>20327</v>
+        <v>16034</v>
       </c>
       <c r="F62">
-        <v>17773</v>
+        <v>16138</v>
       </c>
       <c r="G62">
-        <v>12661</v>
+        <v>11416</v>
       </c>
       <c r="H62">
-        <v>2151</v>
+        <v>2245</v>
       </c>
       <c r="I62">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J62">
-        <v>218</v>
+        <v>113</v>
       </c>
       <c r="K62">
-        <v>699</v>
+        <v>659</v>
       </c>
       <c r="L62">
-        <v>326</v>
+        <v>267</v>
       </c>
       <c r="M62">
-        <v>325</v>
+        <v>381</v>
       </c>
       <c r="N62">
-        <v>581</v>
+        <v>541</v>
       </c>
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B63">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="C63">
-        <v>6791</v>
+        <v>5870</v>
       </c>
       <c r="D63">
-        <v>20029</v>
+        <v>20692</v>
       </c>
       <c r="E63">
-        <v>19655</v>
+        <v>20327</v>
       </c>
       <c r="F63">
-        <v>18410</v>
+        <v>17773</v>
       </c>
       <c r="G63">
-        <v>13307</v>
+        <v>12661</v>
       </c>
       <c r="H63">
-        <v>2277</v>
+        <v>2151</v>
       </c>
       <c r="I63">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J63">
-        <v>113</v>
+        <v>218</v>
       </c>
       <c r="K63">
-        <v>655</v>
+        <v>699</v>
       </c>
       <c r="L63">
-        <v>262</v>
+        <v>326</v>
       </c>
       <c r="M63">
-        <v>359</v>
+        <v>325</v>
       </c>
       <c r="N63">
-        <v>566</v>
+        <v>581</v>
       </c>
     </row>
     <row r="64" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B64">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="C64">
-        <v>6697</v>
+        <v>6791</v>
       </c>
       <c r="D64">
-        <v>24899</v>
+        <v>20029</v>
       </c>
       <c r="E64">
-        <v>27074</v>
+        <v>19655</v>
       </c>
       <c r="F64">
-        <v>27143</v>
+        <v>18410</v>
       </c>
       <c r="G64">
-        <v>13963</v>
+        <v>13307</v>
       </c>
       <c r="H64">
-        <v>2813</v>
+        <v>2277</v>
       </c>
       <c r="I64">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="J64">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="K64">
-        <v>836</v>
+        <v>655</v>
       </c>
       <c r="L64">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="M64">
-        <v>529</v>
+        <v>359</v>
       </c>
       <c r="N64">
-        <v>604</v>
+        <v>566</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B65">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="C65">
-        <v>7854</v>
+        <v>6697</v>
       </c>
       <c r="D65">
-        <v>25576</v>
+        <v>24899</v>
       </c>
       <c r="E65">
-        <v>28091</v>
+        <v>27074</v>
       </c>
       <c r="F65">
-        <v>25166</v>
+        <v>27143</v>
       </c>
       <c r="G65">
-        <v>16619</v>
+        <v>13963</v>
       </c>
       <c r="H65">
-        <v>2427</v>
+        <v>2813</v>
       </c>
       <c r="I65">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="J65">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="K65">
-        <v>1563</v>
+        <v>836</v>
       </c>
       <c r="L65">
-        <v>433</v>
+        <v>330</v>
       </c>
       <c r="M65">
-        <v>378</v>
+        <v>529</v>
       </c>
       <c r="N65">
-        <v>442</v>
+        <v>604</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B66">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="C66">
-        <v>7659</v>
+        <v>7854</v>
       </c>
       <c r="D66">
-        <v>25857</v>
+        <v>25576</v>
       </c>
       <c r="E66">
-        <v>27762</v>
+        <v>28091</v>
       </c>
       <c r="F66">
-        <v>28616</v>
+        <v>25166</v>
       </c>
       <c r="G66">
-        <v>17230</v>
+        <v>16619</v>
       </c>
       <c r="H66">
-        <v>2889</v>
+        <v>2427</v>
       </c>
       <c r="I66">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="J66">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="K66">
-        <v>630</v>
+        <v>1563</v>
       </c>
       <c r="L66">
-        <v>278</v>
+        <v>433</v>
       </c>
       <c r="M66">
-        <v>481</v>
+        <v>378</v>
       </c>
       <c r="N66">
-        <v>758</v>
+        <v>442</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B67">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="C67">
-        <v>9191</v>
+        <v>7659</v>
       </c>
       <c r="D67">
-        <v>29304</v>
+        <v>25857</v>
       </c>
       <c r="E67">
-        <v>30004</v>
+        <v>27762</v>
       </c>
       <c r="F67">
-        <v>28564</v>
+        <v>28616</v>
       </c>
       <c r="G67">
-        <v>17078</v>
+        <v>17230</v>
       </c>
       <c r="H67">
-        <v>3595</v>
+        <v>2889</v>
       </c>
       <c r="I67">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="J67">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="K67">
-        <v>785</v>
+        <v>630</v>
       </c>
       <c r="L67">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="M67">
-        <v>334</v>
+        <v>481</v>
       </c>
       <c r="N67">
-        <v>539</v>
+        <v>758</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B68">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="C68">
-        <v>10439</v>
+        <v>9191</v>
       </c>
       <c r="D68">
-        <v>35168</v>
+        <v>29304</v>
       </c>
       <c r="E68">
-        <v>37076</v>
+        <v>30004</v>
       </c>
       <c r="F68">
-        <v>31909</v>
+        <v>28564</v>
       </c>
       <c r="G68">
-        <v>19642</v>
+        <v>17078</v>
       </c>
       <c r="H68">
-        <v>3701</v>
+        <v>3595</v>
       </c>
       <c r="I68">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J68">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K68">
-        <v>979</v>
+        <v>785</v>
       </c>
       <c r="L68">
-        <v>378</v>
+        <v>307</v>
       </c>
       <c r="M68">
-        <v>472</v>
+        <v>334</v>
       </c>
       <c r="N68">
-        <v>636</v>
+        <v>539</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B69">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="C69">
-        <v>10668</v>
+        <v>10439</v>
       </c>
       <c r="D69">
-        <v>36037</v>
+        <v>35168</v>
       </c>
       <c r="E69">
-        <v>36245</v>
+        <v>37076</v>
       </c>
       <c r="F69">
-        <v>33621</v>
+        <v>31909</v>
       </c>
       <c r="G69">
-        <v>21696</v>
+        <v>19642</v>
       </c>
       <c r="H69">
-        <v>4908</v>
+        <v>3701</v>
       </c>
       <c r="I69">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J69">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="K69">
-        <v>899</v>
+        <v>979</v>
       </c>
       <c r="L69">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="M69">
-        <v>390</v>
+        <v>472</v>
       </c>
       <c r="N69">
-        <v>1616</v>
+        <v>636</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B70">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="C70">
-        <v>11646</v>
+        <v>10668</v>
       </c>
       <c r="D70">
-        <v>39245</v>
+        <v>36037</v>
       </c>
       <c r="E70">
-        <v>37339</v>
+        <v>36245</v>
       </c>
       <c r="F70">
-        <v>34032</v>
+        <v>33621</v>
       </c>
       <c r="G70">
-        <v>23004</v>
+        <v>21696</v>
       </c>
       <c r="H70">
-        <v>3676</v>
+        <v>4908</v>
       </c>
       <c r="I70">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J70">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="K70">
-        <v>917</v>
+        <v>899</v>
       </c>
       <c r="L70">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="M70">
-        <v>419</v>
+        <v>390</v>
       </c>
       <c r="N70">
-        <v>852</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B71">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="C71">
-        <v>11276</v>
+        <v>11646</v>
       </c>
       <c r="D71">
-        <v>40619</v>
+        <v>39245</v>
       </c>
       <c r="E71">
-        <v>42529</v>
+        <v>37339</v>
       </c>
       <c r="F71">
-        <v>40491</v>
+        <v>34032</v>
       </c>
       <c r="G71">
-        <v>25989</v>
+        <v>23004</v>
       </c>
       <c r="H71">
-        <v>5044</v>
+        <v>3676</v>
       </c>
       <c r="I71">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J71">
-        <v>271</v>
+        <v>175</v>
       </c>
       <c r="K71">
-        <v>1126</v>
+        <v>917</v>
       </c>
       <c r="L71">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="M71">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="N71">
-        <v>709</v>
+        <v>852</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B72">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="C72">
-        <v>13182</v>
+        <v>11276</v>
       </c>
       <c r="D72">
-        <v>42311</v>
+        <v>40619</v>
       </c>
       <c r="E72">
-        <v>40914</v>
+        <v>42529</v>
       </c>
       <c r="F72">
-        <v>41367</v>
+        <v>40491</v>
       </c>
       <c r="G72">
-        <v>26723</v>
+        <v>25989</v>
       </c>
       <c r="H72">
-        <v>4857</v>
+        <v>5044</v>
       </c>
       <c r="I72">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J72">
-        <v>177</v>
+        <v>271</v>
       </c>
       <c r="K72">
-        <v>1116</v>
+        <v>1126</v>
       </c>
       <c r="L72">
-        <v>430</v>
+        <v>380</v>
       </c>
       <c r="M72">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="N72">
-        <v>633</v>
+        <v>709</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B73">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="C73">
-        <v>13616</v>
+        <v>13182</v>
       </c>
       <c r="D73">
-        <v>46280</v>
+        <v>42311</v>
       </c>
       <c r="E73">
-        <v>44902</v>
+        <v>40914</v>
       </c>
       <c r="F73">
-        <v>44802</v>
+        <v>41367</v>
       </c>
       <c r="G73">
-        <v>30972</v>
+        <v>26723</v>
       </c>
       <c r="H73">
-        <v>4772</v>
+        <v>4857</v>
       </c>
       <c r="I73">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="J73">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K73">
-        <v>986</v>
+        <v>1116</v>
       </c>
       <c r="L73">
-        <v>368</v>
+        <v>430</v>
       </c>
       <c r="M73">
-        <v>551</v>
+        <v>385</v>
       </c>
       <c r="N73">
-        <v>898</v>
+        <v>633</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B74">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="C74">
-        <v>17308</v>
+        <v>13616</v>
       </c>
       <c r="D74">
-        <v>50376</v>
+        <v>46280</v>
       </c>
       <c r="E74">
-        <v>49203</v>
+        <v>44902</v>
       </c>
       <c r="F74">
-        <v>49326</v>
+        <v>44802</v>
       </c>
       <c r="G74">
-        <v>27990</v>
+        <v>30972</v>
       </c>
       <c r="H74">
-        <v>5227</v>
+        <v>4772</v>
       </c>
       <c r="I74">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J74">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="K74">
-        <v>972</v>
+        <v>986</v>
       </c>
       <c r="L74">
-        <v>560</v>
+        <v>368</v>
       </c>
       <c r="M74">
-        <v>657</v>
+        <v>551</v>
       </c>
       <c r="N74">
-        <v>924</v>
+        <v>898</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B75">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="C75">
-        <v>14053</v>
+        <v>17308</v>
       </c>
       <c r="D75">
-        <v>53411</v>
+        <v>50376</v>
       </c>
       <c r="E75">
-        <v>50345</v>
+        <v>49203</v>
       </c>
       <c r="F75">
-        <v>53440</v>
+        <v>49326</v>
       </c>
       <c r="G75">
-        <v>31535</v>
+        <v>27990</v>
       </c>
       <c r="H75">
-        <v>5240</v>
+        <v>5227</v>
       </c>
       <c r="I75">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="J75">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="K75">
-        <v>1015</v>
+        <v>972</v>
       </c>
       <c r="L75">
-        <v>453</v>
+        <v>560</v>
       </c>
       <c r="M75">
-        <v>1307</v>
+        <v>657</v>
       </c>
       <c r="N75">
-        <v>898</v>
+        <v>924</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B76">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="C76">
-        <v>17151</v>
+        <v>14053</v>
       </c>
       <c r="D76">
-        <v>61650</v>
+        <v>53411</v>
       </c>
       <c r="E76">
-        <v>57202</v>
+        <v>50345</v>
       </c>
       <c r="F76">
-        <v>61071</v>
+        <v>53440</v>
       </c>
       <c r="G76">
-        <v>33721</v>
+        <v>31535</v>
       </c>
       <c r="H76">
-        <v>6043</v>
+        <v>5240</v>
       </c>
       <c r="I76">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="J76">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="K76">
-        <v>883</v>
+        <v>1015</v>
       </c>
       <c r="L76">
-        <v>403</v>
+        <v>453</v>
       </c>
       <c r="M76">
-        <v>649</v>
+        <v>1307</v>
       </c>
       <c r="N76">
-        <v>1043</v>
+        <v>898</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B77">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="C77">
-        <v>16913</v>
+        <v>17151</v>
       </c>
       <c r="D77">
-        <v>62002</v>
+        <v>61650</v>
       </c>
       <c r="E77">
-        <v>59955</v>
+        <v>57202</v>
       </c>
       <c r="F77">
-        <v>59740</v>
+        <v>61071</v>
       </c>
       <c r="G77">
-        <v>36097</v>
+        <v>33721</v>
       </c>
       <c r="H77">
-        <v>9176</v>
+        <v>6043</v>
       </c>
       <c r="I77">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J77">
-        <v>239</v>
+        <v>181</v>
       </c>
       <c r="K77">
-        <v>1484</v>
+        <v>883</v>
       </c>
       <c r="L77">
-        <v>516</v>
+        <v>403</v>
       </c>
       <c r="M77">
-        <v>581</v>
+        <v>649</v>
       </c>
       <c r="N77">
-        <v>1079</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B78">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="C78">
-        <v>18434</v>
+        <v>16913</v>
       </c>
       <c r="D78">
-        <v>65889</v>
+        <v>62002</v>
       </c>
       <c r="E78">
-        <v>62286</v>
+        <v>59955</v>
       </c>
       <c r="F78">
-        <v>63489</v>
+        <v>59740</v>
       </c>
       <c r="G78">
-        <v>34929</v>
+        <v>36097</v>
       </c>
       <c r="H78">
-        <v>6503</v>
+        <v>9176</v>
       </c>
       <c r="I78">
         <v>71</v>
       </c>
       <c r="J78">
-        <v>172</v>
+        <v>239</v>
       </c>
       <c r="K78">
-        <v>950</v>
+        <v>1484</v>
       </c>
       <c r="L78">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="M78">
-        <v>561</v>
+        <v>581</v>
       </c>
       <c r="N78">
-        <v>1186</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B79">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="C79">
-        <v>20389</v>
+        <v>18434</v>
       </c>
       <c r="D79">
-        <v>66511</v>
+        <v>65889</v>
       </c>
       <c r="E79">
-        <v>66053</v>
+        <v>62286</v>
       </c>
       <c r="F79">
-        <v>66284</v>
+        <v>63489</v>
       </c>
       <c r="G79">
-        <v>43137</v>
+        <v>34929</v>
       </c>
       <c r="H79">
-        <v>7696</v>
+        <v>6503</v>
       </c>
       <c r="I79">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="J79">
-        <v>247</v>
+        <v>172</v>
       </c>
       <c r="K79">
-        <v>1379</v>
+        <v>950</v>
       </c>
       <c r="L79">
-        <v>609</v>
+        <v>501</v>
       </c>
       <c r="M79">
-        <v>686</v>
+        <v>561</v>
       </c>
       <c r="N79">
-        <v>1035</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B80">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="C80">
-        <v>19858</v>
+        <v>20389</v>
       </c>
       <c r="D80">
-        <v>71283</v>
+        <v>66511</v>
       </c>
       <c r="E80">
-        <v>70617</v>
+        <v>66053</v>
       </c>
       <c r="F80">
-        <v>69848</v>
+        <v>66284</v>
       </c>
       <c r="G80">
-        <v>41958</v>
+        <v>43137</v>
       </c>
       <c r="H80">
-        <v>6927</v>
+        <v>7696</v>
       </c>
       <c r="I80">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="J80">
-        <v>194</v>
+        <v>247</v>
       </c>
       <c r="K80">
-        <v>1234</v>
+        <v>1379</v>
       </c>
       <c r="L80">
-        <v>688</v>
+        <v>609</v>
       </c>
       <c r="M80">
-        <v>773</v>
+        <v>686</v>
       </c>
       <c r="N80">
-        <v>959</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B81">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="C81">
-        <v>20117</v>
+        <v>19858</v>
       </c>
       <c r="D81">
-        <v>71122</v>
+        <v>71283</v>
       </c>
       <c r="E81">
-        <v>81613</v>
+        <v>70617</v>
       </c>
       <c r="F81">
-        <v>75283</v>
+        <v>69848</v>
       </c>
       <c r="G81">
-        <v>43890</v>
+        <v>41958</v>
       </c>
       <c r="H81">
-        <v>7572</v>
+        <v>6927</v>
       </c>
       <c r="I81">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="J81">
-        <v>241</v>
+        <v>194</v>
       </c>
       <c r="K81">
-        <v>1433</v>
+        <v>1234</v>
       </c>
       <c r="L81">
-        <v>541</v>
+        <v>688</v>
       </c>
       <c r="M81">
-        <v>858</v>
+        <v>773</v>
       </c>
       <c r="N81">
-        <v>1110</v>
+        <v>959</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B82">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="C82">
-        <v>53</v>
+        <v>20117</v>
       </c>
       <c r="D82">
-        <v>72</v>
+        <v>71122</v>
       </c>
       <c r="E82">
-        <v>101</v>
+        <v>81613</v>
       </c>
       <c r="F82">
-        <v>85</v>
+        <v>75283</v>
       </c>
       <c r="G82">
-        <v>55</v>
+        <v>43890</v>
       </c>
       <c r="H82">
-        <v>19</v>
+        <v>7572</v>
       </c>
       <c r="I82">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J82">
-        <v>16</v>
+        <v>241</v>
       </c>
       <c r="K82">
-        <v>79</v>
+        <v>1433</v>
       </c>
       <c r="L82">
-        <v>35</v>
+        <v>541</v>
       </c>
       <c r="M82">
-        <v>35</v>
+        <v>858</v>
       </c>
       <c r="N82">
-        <v>21</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B83">
-        <v>200</v>
+        <v>4100</v>
       </c>
       <c r="C83">
-        <v>80</v>
+        <v>21444</v>
       </c>
       <c r="D83">
-        <v>242</v>
+        <v>72412</v>
       </c>
       <c r="E83">
-        <v>161</v>
+        <v>82665</v>
       </c>
       <c r="F83">
-        <v>236</v>
+        <v>76876</v>
       </c>
       <c r="G83">
-        <v>108</v>
+        <v>44100</v>
       </c>
       <c r="H83">
-        <v>72</v>
+        <v>7645</v>
       </c>
       <c r="I83">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="J83">
-        <v>52</v>
+        <v>265</v>
       </c>
       <c r="K83">
-        <v>59</v>
+        <v>1544</v>
       </c>
       <c r="L83">
-        <v>62</v>
+        <v>586</v>
       </c>
       <c r="M83">
-        <v>57</v>
+        <v>892</v>
       </c>
       <c r="N83">
-        <v>56</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84">
+        <v>100</v>
+      </c>
+      <c r="C84">
+        <v>53</v>
+      </c>
+      <c r="D84">
+        <v>72</v>
+      </c>
+      <c r="E84">
+        <v>101</v>
+      </c>
+      <c r="F84">
+        <v>85</v>
+      </c>
+      <c r="G84">
+        <v>55</v>
+      </c>
+      <c r="H84">
+        <v>19</v>
+      </c>
+      <c r="I84">
+        <v>78</v>
+      </c>
+      <c r="J84">
         <v>16</v>
       </c>
-      <c r="B84">
-        <v>300</v>
-      </c>
-      <c r="C84">
-        <v>150</v>
-      </c>
-      <c r="D84">
-        <v>403</v>
-      </c>
-      <c r="E84">
-        <v>569</v>
-      </c>
-      <c r="F84">
-        <v>405</v>
-      </c>
-      <c r="G84">
-        <v>272</v>
-      </c>
-      <c r="H84">
+      <c r="K84">
         <v>79</v>
       </c>
-      <c r="I84">
-        <v>41</v>
-      </c>
-      <c r="J84">
-        <v>25</v>
-      </c>
-      <c r="K84">
-        <v>101</v>
-      </c>
       <c r="L84">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="M84">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N84">
-        <v>110</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B85">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C85">
-        <v>219</v>
+        <v>80</v>
       </c>
       <c r="D85">
-        <v>625</v>
+        <v>242</v>
       </c>
       <c r="E85">
-        <v>611</v>
+        <v>161</v>
       </c>
       <c r="F85">
-        <v>617</v>
+        <v>236</v>
       </c>
       <c r="G85">
-        <v>430</v>
+        <v>108</v>
       </c>
       <c r="H85">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="I85">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J85">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="K85">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="L85">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M85">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="N85">
-        <v>84</v>
+        <v>56</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B86">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="C86">
-        <v>354</v>
+        <v>150</v>
       </c>
       <c r="D86">
-        <v>1067</v>
+        <v>403</v>
       </c>
       <c r="E86">
-        <v>813</v>
+        <v>569</v>
       </c>
       <c r="F86">
-        <v>1891</v>
+        <v>405</v>
       </c>
       <c r="G86">
-        <v>957</v>
+        <v>272</v>
       </c>
       <c r="H86">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="I86">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="J86">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="K86">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="L86">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="M86">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="N86">
-        <v>88</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B87">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="C87">
-        <v>426</v>
+        <v>219</v>
       </c>
       <c r="D87">
-        <v>1491</v>
+        <v>625</v>
       </c>
       <c r="E87">
-        <v>1490</v>
+        <v>611</v>
       </c>
       <c r="F87">
-        <v>1424</v>
+        <v>617</v>
       </c>
       <c r="G87">
-        <v>1045</v>
+        <v>430</v>
       </c>
       <c r="H87">
-        <v>213</v>
+        <v>99</v>
       </c>
       <c r="I87">
+        <v>28</v>
+      </c>
+      <c r="J87">
+        <v>25</v>
+      </c>
+      <c r="K87">
+        <v>100</v>
+      </c>
+      <c r="L87">
+        <v>59</v>
+      </c>
+      <c r="M87">
         <v>44</v>
       </c>
-      <c r="J87">
-        <v>37</v>
-      </c>
-      <c r="K87">
-        <v>163</v>
-      </c>
-      <c r="L87">
-        <v>64</v>
-      </c>
-      <c r="M87">
-        <v>70</v>
-      </c>
       <c r="N87">
-        <v>104</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B88">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="C88">
-        <v>560</v>
+        <v>354</v>
       </c>
       <c r="D88">
-        <v>1752</v>
+        <v>1067</v>
       </c>
       <c r="E88">
-        <v>1737</v>
+        <v>813</v>
       </c>
       <c r="F88">
-        <v>1598</v>
+        <v>1891</v>
       </c>
       <c r="G88">
-        <v>1451</v>
+        <v>957</v>
       </c>
       <c r="H88">
-        <v>341</v>
+        <v>139</v>
       </c>
       <c r="I88">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="J88">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K88">
-        <v>248</v>
+        <v>128</v>
       </c>
       <c r="L88">
-        <v>151</v>
+        <v>98</v>
       </c>
       <c r="M88">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="N88">
-        <v>174</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B89">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="C89">
-        <v>924</v>
+        <v>426</v>
       </c>
       <c r="D89">
-        <v>2625</v>
+        <v>1491</v>
       </c>
       <c r="E89">
-        <v>2520</v>
+        <v>1490</v>
       </c>
       <c r="F89">
-        <v>2180</v>
+        <v>1424</v>
       </c>
       <c r="G89">
-        <v>1413</v>
+        <v>1045</v>
       </c>
       <c r="H89">
-        <v>306</v>
+        <v>213</v>
       </c>
       <c r="I89">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="J89">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="K89">
-        <v>247</v>
+        <v>163</v>
       </c>
       <c r="L89">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="M89">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="N89">
-        <v>180</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B90">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="C90">
-        <v>1059</v>
+        <v>560</v>
       </c>
       <c r="D90">
-        <v>3068</v>
+        <v>1752</v>
       </c>
       <c r="E90">
-        <v>3244</v>
+        <v>1737</v>
       </c>
       <c r="F90">
-        <v>4236</v>
+        <v>1598</v>
       </c>
       <c r="G90">
-        <v>2049</v>
+        <v>1451</v>
       </c>
       <c r="H90">
-        <v>496</v>
+        <v>341</v>
       </c>
       <c r="I90">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J90">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K90">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="L90">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="M90">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="N90">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B91">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="C91">
-        <v>1251</v>
+        <v>924</v>
       </c>
       <c r="D91">
-        <v>4015</v>
+        <v>2625</v>
       </c>
       <c r="E91">
-        <v>3650</v>
+        <v>2520</v>
       </c>
       <c r="F91">
-        <v>3726</v>
+        <v>2180</v>
       </c>
       <c r="G91">
-        <v>3142</v>
+        <v>1413</v>
       </c>
       <c r="H91">
-        <v>674</v>
+        <v>306</v>
       </c>
       <c r="I91">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="J91">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K91">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="L91">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="M91">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="N91">
-        <v>221</v>
+        <v>180</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B92">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="C92">
-        <v>1628</v>
+        <v>1059</v>
       </c>
       <c r="D92">
-        <v>5281</v>
+        <v>3068</v>
       </c>
       <c r="E92">
-        <v>4584</v>
+        <v>3244</v>
       </c>
       <c r="F92">
-        <v>4502</v>
+        <v>4236</v>
       </c>
       <c r="G92">
-        <v>2810</v>
+        <v>2049</v>
       </c>
       <c r="H92">
-        <v>786</v>
+        <v>496</v>
       </c>
       <c r="I92">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="J92">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="K92">
-        <v>415</v>
+        <v>268</v>
       </c>
       <c r="L92">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="M92">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="N92">
-        <v>291</v>
+        <v>176</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B93">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="C93">
-        <v>2014</v>
+        <v>1251</v>
       </c>
       <c r="D93">
-        <v>6532</v>
+        <v>4015</v>
       </c>
       <c r="E93">
-        <v>5060</v>
+        <v>3650</v>
       </c>
       <c r="F93">
-        <v>5346</v>
+        <v>3726</v>
       </c>
       <c r="G93">
-        <v>3794</v>
+        <v>3142</v>
       </c>
       <c r="H93">
-        <v>890</v>
+        <v>674</v>
       </c>
       <c r="I93">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J93">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="K93">
-        <v>432</v>
+        <v>276</v>
       </c>
       <c r="L93">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="M93">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="N93">
-        <v>276</v>
+        <v>221</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B94">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="C94">
-        <v>3258</v>
+        <v>1628</v>
       </c>
       <c r="D94">
-        <v>9199</v>
+        <v>5281</v>
       </c>
       <c r="E94">
-        <v>7973</v>
+        <v>4584</v>
       </c>
       <c r="F94">
-        <v>6481</v>
+        <v>4502</v>
       </c>
       <c r="G94">
-        <v>5201</v>
+        <v>2810</v>
       </c>
       <c r="H94">
-        <v>1450</v>
+        <v>786</v>
       </c>
       <c r="I94">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="J94">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="K94">
-        <v>474</v>
+        <v>415</v>
       </c>
       <c r="L94">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="M94">
-        <v>221</v>
+        <v>164</v>
       </c>
       <c r="N94">
-        <v>302</v>
+        <v>291</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B95">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="C95">
-        <v>2584</v>
+        <v>2014</v>
       </c>
       <c r="D95">
-        <v>10576</v>
+        <v>6532</v>
       </c>
       <c r="E95">
-        <v>9735</v>
+        <v>5060</v>
       </c>
       <c r="F95">
-        <v>7982</v>
+        <v>5346</v>
       </c>
       <c r="G95">
-        <v>6674</v>
+        <v>3794</v>
       </c>
       <c r="H95">
-        <v>903</v>
+        <v>890</v>
       </c>
       <c r="I95">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="J95">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K95">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="L95">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="M95">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N95">
-        <v>412</v>
+        <v>276</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B96">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="C96">
-        <v>2504</v>
+        <v>3258</v>
       </c>
       <c r="D96">
-        <v>8631</v>
+        <v>9199</v>
       </c>
       <c r="E96">
-        <v>9382</v>
+        <v>7973</v>
       </c>
       <c r="F96">
-        <v>8153</v>
+        <v>6481</v>
       </c>
       <c r="G96">
-        <v>6932</v>
+        <v>5201</v>
       </c>
       <c r="H96">
-        <v>1304</v>
+        <v>1450</v>
       </c>
       <c r="I96">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J96">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="K96">
-        <v>446</v>
+        <v>474</v>
       </c>
       <c r="L96">
-        <v>265</v>
+        <v>158</v>
       </c>
       <c r="M96">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N96">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B97">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="C97">
-        <v>3975</v>
+        <v>2584</v>
       </c>
       <c r="D97">
-        <v>10466</v>
+        <v>10576</v>
       </c>
       <c r="E97">
-        <v>10071</v>
+        <v>9735</v>
       </c>
       <c r="F97">
-        <v>12081</v>
+        <v>7982</v>
       </c>
       <c r="G97">
-        <v>6641</v>
+        <v>6674</v>
       </c>
       <c r="H97">
-        <v>1394</v>
+        <v>903</v>
       </c>
       <c r="I97">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="J97">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K97">
-        <v>517</v>
+        <v>390</v>
       </c>
       <c r="L97">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M97">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N97">
-        <v>305</v>
+        <v>412</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B98">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="C98">
-        <v>4089</v>
+        <v>2504</v>
       </c>
       <c r="D98">
-        <v>13009</v>
+        <v>8631</v>
       </c>
       <c r="E98">
-        <v>10976</v>
+        <v>9382</v>
       </c>
       <c r="F98">
-        <v>12559</v>
+        <v>8153</v>
       </c>
       <c r="G98">
-        <v>7504</v>
+        <v>6932</v>
       </c>
       <c r="H98">
-        <v>1465</v>
+        <v>1304</v>
       </c>
       <c r="I98">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J98">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K98">
-        <v>578</v>
+        <v>446</v>
       </c>
       <c r="L98">
-        <v>193</v>
+        <v>265</v>
       </c>
       <c r="M98">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="N98">
-        <v>488</v>
+        <v>303</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B99">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="C99">
-        <v>4537</v>
+        <v>3975</v>
       </c>
       <c r="D99">
-        <v>15151</v>
+        <v>10466</v>
       </c>
       <c r="E99">
-        <v>12454</v>
+        <v>10071</v>
       </c>
       <c r="F99">
-        <v>13902</v>
+        <v>12081</v>
       </c>
       <c r="G99">
-        <v>8787</v>
+        <v>6641</v>
       </c>
       <c r="H99">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="I99">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J99">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K99">
-        <v>756</v>
+        <v>517</v>
       </c>
       <c r="L99">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="M99">
-        <v>247</v>
+        <v>180</v>
       </c>
       <c r="N99">
-        <v>459</v>
+        <v>305</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B100">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="C100">
-        <v>5495</v>
+        <v>4089</v>
       </c>
       <c r="D100">
-        <v>15377</v>
+        <v>13009</v>
       </c>
       <c r="E100">
-        <v>17122</v>
+        <v>10976</v>
       </c>
       <c r="F100">
-        <v>15036</v>
+        <v>12559</v>
       </c>
       <c r="G100">
-        <v>11374</v>
+        <v>7504</v>
       </c>
       <c r="H100">
-        <v>1949</v>
+        <v>1465</v>
       </c>
       <c r="I100">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="J100">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="K100">
-        <v>550</v>
+        <v>578</v>
       </c>
       <c r="L100">
-        <v>247</v>
+        <v>193</v>
       </c>
       <c r="M100">
-        <v>273</v>
+        <v>195</v>
       </c>
       <c r="N100">
-        <v>439</v>
+        <v>488</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B101">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="C101">
-        <v>5020</v>
+        <v>4537</v>
       </c>
       <c r="D101">
-        <v>16723</v>
+        <v>15151</v>
       </c>
       <c r="E101">
-        <v>15480</v>
+        <v>12454</v>
       </c>
       <c r="F101">
-        <v>16106</v>
+        <v>13902</v>
       </c>
       <c r="G101">
-        <v>9799</v>
+        <v>8787</v>
       </c>
       <c r="H101">
-        <v>1852</v>
+        <v>1392</v>
       </c>
       <c r="I101">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="J101">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="K101">
-        <v>512</v>
+        <v>756</v>
       </c>
       <c r="L101">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="M101">
-        <v>388</v>
+        <v>247</v>
       </c>
       <c r="N101">
-        <v>513</v>
+        <v>459</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B102">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="C102">
-        <v>6259</v>
+        <v>5495</v>
       </c>
       <c r="D102">
-        <v>20199</v>
+        <v>15377</v>
       </c>
       <c r="E102">
-        <v>18647</v>
+        <v>17122</v>
       </c>
       <c r="F102">
-        <v>22772</v>
+        <v>15036</v>
       </c>
       <c r="G102">
-        <v>10853</v>
+        <v>11374</v>
       </c>
       <c r="H102">
-        <v>2872</v>
+        <v>1949</v>
       </c>
       <c r="I102">
         <v>58</v>
       </c>
       <c r="J102">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="K102">
-        <v>673</v>
+        <v>550</v>
       </c>
       <c r="L102">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="M102">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="N102">
-        <v>518</v>
+        <v>439</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B103">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="C103">
-        <v>7477</v>
+        <v>5020</v>
       </c>
       <c r="D103">
-        <v>22586</v>
+        <v>16723</v>
       </c>
       <c r="E103">
-        <v>21420</v>
+        <v>15480</v>
       </c>
       <c r="F103">
-        <v>19909</v>
+        <v>16106</v>
       </c>
       <c r="G103">
-        <v>14239</v>
+        <v>9799</v>
       </c>
       <c r="H103">
-        <v>2073</v>
+        <v>1852</v>
       </c>
       <c r="I103">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J103">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="K103">
-        <v>863</v>
+        <v>512</v>
       </c>
       <c r="L103">
-        <v>377</v>
+        <v>248</v>
       </c>
       <c r="M103">
         <v>388</v>
       </c>
       <c r="N103">
-        <v>566</v>
+        <v>513</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B104">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="C104">
-        <v>7148</v>
+        <v>6259</v>
       </c>
       <c r="D104">
-        <v>21904</v>
+        <v>20199</v>
       </c>
       <c r="E104">
-        <v>22970</v>
+        <v>18647</v>
       </c>
       <c r="F104">
-        <v>21545</v>
+        <v>22772</v>
       </c>
       <c r="G104">
-        <v>14670</v>
+        <v>10853</v>
       </c>
       <c r="H104">
-        <v>3170</v>
+        <v>2872</v>
       </c>
       <c r="I104">
+        <v>58</v>
+      </c>
+      <c r="J104">
         <v>115</v>
       </c>
-      <c r="J104">
-        <v>136</v>
-      </c>
       <c r="K104">
-        <v>703</v>
+        <v>673</v>
       </c>
       <c r="L104">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="M104">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="N104">
-        <v>565</v>
+        <v>518</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B105">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="C105">
-        <v>7218</v>
+        <v>7477</v>
       </c>
       <c r="D105">
-        <v>23893</v>
+        <v>22586</v>
       </c>
       <c r="E105">
-        <v>23411</v>
+        <v>21420</v>
       </c>
       <c r="F105">
-        <v>25795</v>
+        <v>19909</v>
       </c>
       <c r="G105">
-        <v>15102</v>
+        <v>14239</v>
       </c>
       <c r="H105">
-        <v>2671</v>
+        <v>2073</v>
       </c>
       <c r="I105">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="J105">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="K105">
-        <v>838</v>
+        <v>863</v>
       </c>
       <c r="L105">
         <v>377</v>
       </c>
       <c r="M105">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="N105">
-        <v>905</v>
+        <v>566</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B106">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="C106">
-        <v>8150</v>
+        <v>7148</v>
       </c>
       <c r="D106">
-        <v>24323</v>
+        <v>21904</v>
       </c>
       <c r="E106">
-        <v>27408</v>
+        <v>22970</v>
       </c>
       <c r="F106">
-        <v>29107</v>
+        <v>21545</v>
       </c>
       <c r="G106">
-        <v>17895</v>
+        <v>14670</v>
       </c>
       <c r="H106">
-        <v>2936</v>
+        <v>3170</v>
       </c>
       <c r="I106">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="J106">
-        <v>222</v>
+        <v>136</v>
       </c>
       <c r="K106">
-        <v>1086</v>
+        <v>703</v>
       </c>
       <c r="L106">
-        <v>569</v>
+        <v>314</v>
       </c>
       <c r="M106">
-        <v>469</v>
+        <v>330</v>
       </c>
       <c r="N106">
-        <v>656</v>
+        <v>565</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B107">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="C107">
-        <v>10620</v>
+        <v>7218</v>
       </c>
       <c r="D107">
-        <v>29798</v>
+        <v>23893</v>
       </c>
       <c r="E107">
-        <v>30283</v>
+        <v>23411</v>
       </c>
       <c r="F107">
-        <v>29648</v>
+        <v>25795</v>
       </c>
       <c r="G107">
-        <v>21976</v>
+        <v>15102</v>
       </c>
       <c r="H107">
-        <v>3284</v>
+        <v>2671</v>
       </c>
       <c r="I107">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J107">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="K107">
-        <v>998</v>
+        <v>838</v>
       </c>
       <c r="L107">
-        <v>415</v>
+        <v>377</v>
       </c>
       <c r="M107">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="N107">
-        <v>817</v>
+        <v>905</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B108">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="C108">
-        <v>10603</v>
+        <v>8150</v>
       </c>
       <c r="D108">
-        <v>31964</v>
+        <v>24323</v>
       </c>
       <c r="E108">
-        <v>31070</v>
+        <v>27408</v>
       </c>
       <c r="F108">
-        <v>32222</v>
+        <v>29107</v>
       </c>
       <c r="G108">
-        <v>20343</v>
+        <v>17895</v>
       </c>
       <c r="H108">
-        <v>3601</v>
+        <v>2936</v>
       </c>
       <c r="I108">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="J108">
-        <v>149</v>
+        <v>222</v>
       </c>
       <c r="K108">
-        <v>890</v>
+        <v>1086</v>
       </c>
       <c r="L108">
-        <v>394</v>
+        <v>569</v>
       </c>
       <c r="M108">
-        <v>380</v>
+        <v>469</v>
       </c>
       <c r="N108">
-        <v>650</v>
+        <v>656</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B109">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="C109">
-        <v>9977</v>
+        <v>10620</v>
       </c>
       <c r="D109">
-        <v>32927</v>
+        <v>29798</v>
       </c>
       <c r="E109">
-        <v>35188</v>
+        <v>30283</v>
       </c>
       <c r="F109">
-        <v>33553</v>
+        <v>29648</v>
       </c>
       <c r="G109">
-        <v>18793</v>
+        <v>21976</v>
       </c>
       <c r="H109">
-        <v>4896</v>
+        <v>3284</v>
       </c>
       <c r="I109">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J109">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="K109">
-        <v>838</v>
+        <v>998</v>
       </c>
       <c r="L109">
-        <v>839</v>
+        <v>415</v>
       </c>
       <c r="M109">
-        <v>540</v>
+        <v>437</v>
       </c>
       <c r="N109">
-        <v>1019</v>
+        <v>817</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B110">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="C110">
-        <v>10778</v>
+        <v>10603</v>
       </c>
       <c r="D110">
-        <v>42258</v>
+        <v>31964</v>
       </c>
       <c r="E110">
-        <v>39424</v>
+        <v>31070</v>
       </c>
       <c r="F110">
-        <v>34955</v>
+        <v>32222</v>
       </c>
       <c r="G110">
-        <v>23454</v>
+        <v>20343</v>
       </c>
       <c r="H110">
-        <v>4192</v>
+        <v>3601</v>
       </c>
       <c r="I110">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="J110">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K110">
-        <v>924</v>
+        <v>890</v>
       </c>
       <c r="L110">
-        <v>677</v>
+        <v>394</v>
       </c>
       <c r="M110">
-        <v>931</v>
+        <v>380</v>
       </c>
       <c r="N110">
-        <v>763</v>
+        <v>650</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B111">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="C111">
-        <v>10065</v>
+        <v>9977</v>
       </c>
       <c r="D111">
-        <v>38782</v>
+        <v>32927</v>
       </c>
       <c r="E111">
-        <v>37064</v>
+        <v>35188</v>
       </c>
       <c r="F111">
-        <v>42056</v>
+        <v>33553</v>
       </c>
       <c r="G111">
-        <v>22237</v>
+        <v>18793</v>
       </c>
       <c r="H111">
-        <v>4312</v>
+        <v>4896</v>
       </c>
       <c r="I111">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="J111">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="K111">
-        <v>989</v>
+        <v>838</v>
       </c>
       <c r="L111">
-        <v>387</v>
+        <v>839</v>
       </c>
       <c r="M111">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="N111">
-        <v>761</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B112">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="C112">
-        <v>13356</v>
+        <v>10778</v>
       </c>
       <c r="D112">
-        <v>42312</v>
+        <v>42258</v>
       </c>
       <c r="E112">
-        <v>44057</v>
+        <v>39424</v>
       </c>
       <c r="F112">
-        <v>43898</v>
+        <v>34955</v>
       </c>
       <c r="G112">
-        <v>25170</v>
+        <v>23454</v>
       </c>
       <c r="H112">
-        <v>5552</v>
+        <v>4192</v>
       </c>
       <c r="I112">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="J112">
-        <v>380</v>
+        <v>157</v>
       </c>
       <c r="K112">
-        <v>1560</v>
+        <v>924</v>
       </c>
       <c r="L112">
-        <v>507</v>
+        <v>677</v>
       </c>
       <c r="M112">
-        <v>678</v>
+        <v>931</v>
       </c>
       <c r="N112">
-        <v>835</v>
+        <v>763</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B113">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="C113">
-        <v>14844</v>
+        <v>10065</v>
       </c>
       <c r="D113">
-        <v>45341</v>
+        <v>38782</v>
       </c>
       <c r="E113">
-        <v>43577</v>
+        <v>37064</v>
       </c>
       <c r="F113">
-        <v>44472</v>
+        <v>42056</v>
       </c>
       <c r="G113">
-        <v>31054</v>
+        <v>22237</v>
       </c>
       <c r="H113">
-        <v>4523</v>
+        <v>4312</v>
       </c>
       <c r="I113">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J113">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="K113">
-        <v>1007</v>
+        <v>989</v>
       </c>
       <c r="L113">
-        <v>429</v>
+        <v>387</v>
       </c>
       <c r="M113">
-        <v>504</v>
+        <v>535</v>
       </c>
       <c r="N113">
-        <v>844</v>
+        <v>761</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B114">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="C114">
-        <v>14139</v>
+        <v>13356</v>
       </c>
       <c r="D114">
-        <v>50965</v>
+        <v>42312</v>
       </c>
       <c r="E114">
-        <v>46153</v>
+        <v>44057</v>
       </c>
       <c r="F114">
-        <v>49248</v>
+        <v>43898</v>
       </c>
       <c r="G114">
-        <v>27208</v>
+        <v>25170</v>
       </c>
       <c r="H114">
-        <v>4968</v>
+        <v>5552</v>
       </c>
       <c r="I114">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="J114">
-        <v>147</v>
+        <v>380</v>
       </c>
       <c r="K114">
-        <v>971</v>
+        <v>1560</v>
       </c>
       <c r="L114">
-        <v>419</v>
+        <v>507</v>
       </c>
       <c r="M114">
-        <v>440</v>
+        <v>678</v>
       </c>
       <c r="N114">
-        <v>672</v>
+        <v>835</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B115">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="C115">
-        <v>15743</v>
+        <v>14844</v>
       </c>
       <c r="D115">
-        <v>55779</v>
+        <v>45341</v>
       </c>
       <c r="E115">
-        <v>53460</v>
+        <v>43577</v>
       </c>
       <c r="F115">
-        <v>53675</v>
+        <v>44472</v>
       </c>
       <c r="G115">
-        <v>30035</v>
+        <v>31054</v>
       </c>
       <c r="H115">
-        <v>5426</v>
+        <v>4523</v>
       </c>
       <c r="I115">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="J115">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="K115">
-        <v>998</v>
+        <v>1007</v>
       </c>
       <c r="L115">
-        <v>576</v>
+        <v>429</v>
       </c>
       <c r="M115">
-        <v>481</v>
+        <v>504</v>
       </c>
       <c r="N115">
-        <v>957</v>
+        <v>844</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B116">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="C116">
-        <v>16329</v>
+        <v>14139</v>
       </c>
       <c r="D116">
-        <v>54811</v>
+        <v>50965</v>
       </c>
       <c r="E116">
-        <v>55153</v>
+        <v>46153</v>
       </c>
       <c r="F116">
-        <v>53228</v>
+        <v>49248</v>
       </c>
       <c r="G116">
-        <v>31152</v>
+        <v>27208</v>
       </c>
       <c r="H116">
-        <v>8788</v>
+        <v>4968</v>
       </c>
       <c r="I116">
-        <v>149</v>
+        <v>63</v>
       </c>
       <c r="J116">
-        <v>279</v>
+        <v>147</v>
       </c>
       <c r="K116">
-        <v>1607</v>
+        <v>971</v>
       </c>
       <c r="L116">
-        <v>648</v>
+        <v>419</v>
       </c>
       <c r="M116">
+        <v>440</v>
+      </c>
+      <c r="N116">
         <v>672</v>
-      </c>
-      <c r="N116">
-        <v>956</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B117">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="C117">
-        <v>16120</v>
+        <v>15743</v>
       </c>
       <c r="D117">
-        <v>59950</v>
+        <v>55779</v>
       </c>
       <c r="E117">
-        <v>63280</v>
+        <v>53460</v>
       </c>
       <c r="F117">
-        <v>61516</v>
+        <v>53675</v>
       </c>
       <c r="G117">
-        <v>34770</v>
+        <v>30035</v>
       </c>
       <c r="H117">
-        <v>6481</v>
+        <v>5426</v>
       </c>
       <c r="I117">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J117">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="K117">
-        <v>1178</v>
+        <v>998</v>
       </c>
       <c r="L117">
-        <v>560</v>
+        <v>576</v>
       </c>
       <c r="M117">
-        <v>595</v>
+        <v>481</v>
       </c>
       <c r="N117">
-        <v>1094</v>
+        <v>957</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B118">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="C118">
-        <v>19103</v>
+        <v>16329</v>
       </c>
       <c r="D118">
-        <v>62535</v>
+        <v>54811</v>
       </c>
       <c r="E118">
-        <v>60766</v>
+        <v>55153</v>
       </c>
       <c r="F118">
-        <v>61562</v>
+        <v>53228</v>
       </c>
       <c r="G118">
-        <v>35879</v>
+        <v>31152</v>
       </c>
       <c r="H118">
-        <v>5485</v>
+        <v>8788</v>
       </c>
       <c r="I118">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="J118">
-        <v>231</v>
+        <v>279</v>
       </c>
       <c r="K118">
-        <v>1371</v>
+        <v>1607</v>
       </c>
       <c r="L118">
-        <v>525</v>
+        <v>648</v>
       </c>
       <c r="M118">
-        <v>646</v>
+        <v>672</v>
       </c>
       <c r="N118">
-        <v>1710</v>
+        <v>956</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B119">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="C119">
-        <v>17889</v>
+        <v>16120</v>
       </c>
       <c r="D119">
-        <v>70915</v>
+        <v>59950</v>
       </c>
       <c r="E119">
-        <v>64590</v>
+        <v>63280</v>
       </c>
       <c r="F119">
-        <v>64989</v>
+        <v>61516</v>
       </c>
       <c r="G119">
-        <v>38372</v>
+        <v>34770</v>
       </c>
       <c r="H119">
-        <v>7842</v>
+        <v>6481</v>
       </c>
       <c r="I119">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J119">
-        <v>297</v>
+        <v>191</v>
       </c>
       <c r="K119">
-        <v>1028</v>
+        <v>1178</v>
       </c>
       <c r="L119">
-        <v>462</v>
+        <v>560</v>
       </c>
       <c r="M119">
-        <v>798</v>
+        <v>595</v>
       </c>
       <c r="N119">
-        <v>1048</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B120">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="C120">
-        <v>20156</v>
+        <v>19103</v>
       </c>
       <c r="D120">
-        <v>68608</v>
+        <v>62535</v>
       </c>
       <c r="E120">
-        <v>67961</v>
+        <v>60766</v>
       </c>
       <c r="F120">
-        <v>71504</v>
+        <v>61562</v>
       </c>
       <c r="G120">
-        <v>48318</v>
+        <v>35879</v>
       </c>
       <c r="H120">
-        <v>8011</v>
+        <v>5485</v>
       </c>
       <c r="I120">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="J120">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="K120">
-        <v>1729</v>
+        <v>1371</v>
       </c>
       <c r="L120">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="M120">
-        <v>580</v>
+        <v>646</v>
       </c>
       <c r="N120">
-        <v>1078</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B121">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="C121">
-        <v>21037</v>
+        <v>17889</v>
       </c>
       <c r="D121">
-        <v>74339</v>
+        <v>70915</v>
       </c>
       <c r="E121">
-        <v>75407</v>
+        <v>64590</v>
       </c>
       <c r="F121">
-        <v>73351</v>
+        <v>64989</v>
       </c>
       <c r="G121">
-        <v>46128</v>
+        <v>38372</v>
       </c>
       <c r="H121">
-        <v>7504</v>
+        <v>7842</v>
       </c>
       <c r="I121">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J121">
-        <v>186</v>
+        <v>297</v>
       </c>
       <c r="K121">
-        <v>1333</v>
+        <v>1028</v>
       </c>
       <c r="L121">
-        <v>577</v>
+        <v>462</v>
       </c>
       <c r="M121">
-        <v>640</v>
+        <v>798</v>
       </c>
       <c r="N121">
-        <v>1458</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B122">
-        <v>100</v>
+        <v>3900</v>
       </c>
       <c r="C122">
-        <v>34</v>
+        <v>20156</v>
       </c>
       <c r="D122">
-        <v>88</v>
+        <v>68608</v>
       </c>
       <c r="E122">
-        <v>67</v>
+        <v>67961</v>
       </c>
       <c r="F122">
-        <v>85</v>
+        <v>71504</v>
       </c>
       <c r="G122">
-        <v>46</v>
+        <v>48318</v>
       </c>
       <c r="H122">
-        <v>37</v>
+        <v>8011</v>
       </c>
       <c r="I122">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="J122">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="K122">
-        <v>60</v>
+        <v>1729</v>
       </c>
       <c r="L122">
-        <v>35</v>
+        <v>532</v>
       </c>
       <c r="M122">
-        <v>34</v>
+        <v>580</v>
       </c>
       <c r="N122">
-        <v>36</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B123">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="C123">
-        <v>58</v>
+        <v>21037</v>
       </c>
       <c r="D123">
-        <v>212</v>
+        <v>74339</v>
       </c>
       <c r="E123">
-        <v>211</v>
+        <v>75407</v>
       </c>
       <c r="F123">
-        <v>222</v>
+        <v>73351</v>
       </c>
       <c r="G123">
-        <v>108</v>
+        <v>46128</v>
       </c>
       <c r="H123">
-        <v>60</v>
+        <v>7504</v>
       </c>
       <c r="I123">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J123">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="K123">
-        <v>101</v>
+        <v>1333</v>
       </c>
       <c r="L123">
-        <v>43</v>
+        <v>577</v>
       </c>
       <c r="M123">
-        <v>46</v>
+        <v>640</v>
       </c>
       <c r="N123">
-        <v>60</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B124">
-        <v>300</v>
+        <v>4100</v>
       </c>
       <c r="C124">
-        <v>140</v>
+        <v>22533</v>
       </c>
       <c r="D124">
-        <v>516</v>
+        <v>75455</v>
       </c>
       <c r="E124">
-        <v>550</v>
+        <v>76655</v>
       </c>
       <c r="F124">
-        <v>291</v>
+        <v>74534</v>
       </c>
       <c r="G124">
-        <v>220</v>
+        <v>47892</v>
       </c>
       <c r="H124">
-        <v>88</v>
+        <v>7694</v>
       </c>
       <c r="I124">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="J124">
-        <v>25</v>
+        <v>197</v>
       </c>
       <c r="K124">
-        <v>102</v>
+        <v>1252</v>
       </c>
       <c r="L124">
-        <v>50</v>
+        <v>612</v>
       </c>
       <c r="M124">
-        <v>57</v>
+        <v>650</v>
       </c>
       <c r="N124">
-        <v>76</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B125">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="C125">
-        <v>167</v>
+        <v>34</v>
       </c>
       <c r="D125">
-        <v>505</v>
+        <v>88</v>
       </c>
       <c r="E125">
-        <v>522</v>
+        <v>67</v>
       </c>
       <c r="F125">
-        <v>531</v>
+        <v>85</v>
       </c>
       <c r="G125">
-        <v>317</v>
+        <v>46</v>
       </c>
       <c r="H125">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="I125">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="J125">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="K125">
-        <v>235</v>
+        <v>60</v>
       </c>
       <c r="L125">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="M125">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="N125">
-        <v>88</v>
+        <v>36</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B126">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="C126">
-        <v>384</v>
+        <v>58</v>
       </c>
       <c r="D126">
-        <v>1080</v>
+        <v>212</v>
       </c>
       <c r="E126">
-        <v>1068</v>
+        <v>211</v>
       </c>
       <c r="F126">
-        <v>934</v>
+        <v>222</v>
       </c>
       <c r="G126">
-        <v>631</v>
+        <v>108</v>
       </c>
       <c r="H126">
-        <v>257</v>
+        <v>60</v>
       </c>
       <c r="I126">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="J126">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="K126">
-        <v>352</v>
+        <v>101</v>
       </c>
       <c r="L126">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="M126">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="N126">
-        <v>112</v>
+        <v>60</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B127">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="C127">
-        <v>624</v>
+        <v>140</v>
       </c>
       <c r="D127">
-        <v>1749</v>
+        <v>516</v>
       </c>
       <c r="E127">
-        <v>2001</v>
+        <v>550</v>
       </c>
       <c r="F127">
-        <v>1983</v>
+        <v>291</v>
       </c>
       <c r="G127">
-        <v>1439</v>
+        <v>220</v>
       </c>
       <c r="H127">
-        <v>366</v>
+        <v>88</v>
       </c>
       <c r="I127">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="J127">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="K127">
-        <v>263</v>
+        <v>102</v>
       </c>
       <c r="L127">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="M127">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="N127">
-        <v>177</v>
+        <v>76</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B128">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="C128">
-        <v>924</v>
+        <v>167</v>
       </c>
       <c r="D128">
-        <v>1749</v>
+        <v>505</v>
       </c>
       <c r="E128">
-        <v>1766</v>
+        <v>522</v>
       </c>
       <c r="F128">
-        <v>1862</v>
+        <v>531</v>
       </c>
       <c r="G128">
-        <v>1102</v>
+        <v>317</v>
       </c>
       <c r="H128">
-        <v>245</v>
+        <v>101</v>
       </c>
       <c r="I128">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J128">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="K128">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="L128">
-        <v>408</v>
+        <v>57</v>
       </c>
       <c r="M128">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="N128">
-        <v>153</v>
+        <v>88</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B129">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="C129">
-        <v>893</v>
+        <v>384</v>
       </c>
       <c r="D129">
-        <v>2539</v>
+        <v>1080</v>
       </c>
       <c r="E129">
-        <v>2313</v>
+        <v>1068</v>
       </c>
       <c r="F129">
-        <v>2906</v>
+        <v>934</v>
       </c>
       <c r="G129">
-        <v>1955</v>
+        <v>631</v>
       </c>
       <c r="H129">
-        <v>442</v>
+        <v>257</v>
       </c>
       <c r="I129">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="J129">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="K129">
-        <v>226</v>
+        <v>352</v>
       </c>
       <c r="L129">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="M129">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="N129">
-        <v>163</v>
+        <v>112</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B130">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="C130">
-        <v>951</v>
+        <v>624</v>
       </c>
       <c r="D130">
-        <v>2902</v>
+        <v>1749</v>
       </c>
       <c r="E130">
-        <v>3370</v>
+        <v>2001</v>
       </c>
       <c r="F130">
-        <v>4266</v>
+        <v>1983</v>
       </c>
       <c r="G130">
-        <v>2147</v>
+        <v>1439</v>
       </c>
       <c r="H130">
-        <v>397</v>
+        <v>366</v>
       </c>
       <c r="I130">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="J130">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="K130">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="L130">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="M130">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N130">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B131">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="C131">
-        <v>1369</v>
+        <v>924</v>
       </c>
       <c r="D131">
-        <v>3777</v>
+        <v>1749</v>
       </c>
       <c r="E131">
-        <v>4326</v>
+        <v>1766</v>
       </c>
       <c r="F131">
-        <v>2991</v>
+        <v>1862</v>
       </c>
       <c r="G131">
-        <v>2113</v>
+        <v>1102</v>
       </c>
       <c r="H131">
-        <v>756</v>
+        <v>245</v>
       </c>
       <c r="I131">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="J131">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="K131">
+        <v>188</v>
+      </c>
+      <c r="L131">
         <v>408</v>
       </c>
-      <c r="L131">
-        <v>178</v>
-      </c>
       <c r="M131">
-        <v>168</v>
+        <v>101</v>
       </c>
       <c r="N131">
-        <v>258</v>
+        <v>153</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B132">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="C132">
-        <v>1846</v>
+        <v>893</v>
       </c>
       <c r="D132">
-        <v>5003</v>
+        <v>2539</v>
       </c>
       <c r="E132">
-        <v>5509</v>
+        <v>2313</v>
       </c>
       <c r="F132">
-        <v>4716</v>
+        <v>2906</v>
       </c>
       <c r="G132">
-        <v>3465</v>
+        <v>1955</v>
       </c>
       <c r="H132">
-        <v>570</v>
+        <v>442</v>
       </c>
       <c r="I132">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="J132">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="K132">
-        <v>368</v>
+        <v>226</v>
       </c>
       <c r="L132">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="M132">
-        <v>167</v>
+        <v>100</v>
       </c>
       <c r="N132">
-        <v>261</v>
+        <v>163</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B133">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="C133">
-        <v>1906</v>
+        <v>951</v>
       </c>
       <c r="D133">
-        <v>5470</v>
+        <v>2902</v>
       </c>
       <c r="E133">
-        <v>5586</v>
+        <v>3370</v>
       </c>
       <c r="F133">
-        <v>5206</v>
+        <v>4266</v>
       </c>
       <c r="G133">
-        <v>4127</v>
+        <v>2147</v>
       </c>
       <c r="H133">
-        <v>713</v>
+        <v>397</v>
       </c>
       <c r="I133">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J133">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="K133">
-        <v>346</v>
+        <v>256</v>
       </c>
       <c r="L133">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="M133">
-        <v>345</v>
+        <v>107</v>
       </c>
       <c r="N133">
-        <v>222</v>
+        <v>170</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B134">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="C134">
-        <v>1951</v>
+        <v>1369</v>
       </c>
       <c r="D134">
-        <v>6265</v>
+        <v>3777</v>
       </c>
       <c r="E134">
-        <v>6067</v>
+        <v>4326</v>
       </c>
       <c r="F134">
-        <v>6751</v>
+        <v>2991</v>
       </c>
       <c r="G134">
-        <v>5484</v>
+        <v>2113</v>
       </c>
       <c r="H134">
-        <v>1079</v>
+        <v>756</v>
       </c>
       <c r="I134">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="J134">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K134">
-        <v>443</v>
+        <v>408</v>
       </c>
       <c r="L134">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="M134">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="N134">
-        <v>282</v>
+        <v>258</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B135">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="C135">
-        <v>2622</v>
+        <v>1846</v>
       </c>
       <c r="D135">
-        <v>7732</v>
+        <v>5003</v>
       </c>
       <c r="E135">
-        <v>8662</v>
+        <v>5509</v>
       </c>
       <c r="F135">
-        <v>11232</v>
+        <v>4716</v>
       </c>
       <c r="G135">
-        <v>6147</v>
+        <v>3465</v>
       </c>
       <c r="H135">
-        <v>1159</v>
+        <v>570</v>
       </c>
       <c r="I135">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J135">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="K135">
-        <v>827</v>
+        <v>368</v>
       </c>
       <c r="L135">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="M135">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="N135">
-        <v>684</v>
+        <v>261</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B136">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="C136">
-        <v>2895</v>
+        <v>1906</v>
       </c>
       <c r="D136">
-        <v>9256</v>
+        <v>5470</v>
       </c>
       <c r="E136">
-        <v>9351</v>
+        <v>5586</v>
       </c>
       <c r="F136">
-        <v>10056</v>
+        <v>5206</v>
       </c>
       <c r="G136">
-        <v>6000</v>
+        <v>4127</v>
       </c>
       <c r="H136">
-        <v>1162</v>
+        <v>713</v>
       </c>
       <c r="I136">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J136">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="K136">
-        <v>549</v>
+        <v>346</v>
       </c>
       <c r="L136">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="M136">
-        <v>185</v>
+        <v>345</v>
       </c>
       <c r="N136">
-        <v>298</v>
+        <v>222</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B137">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="C137">
-        <v>2882</v>
+        <v>1951</v>
       </c>
       <c r="D137">
-        <v>10932</v>
+        <v>6265</v>
       </c>
       <c r="E137">
-        <v>9951</v>
+        <v>6067</v>
       </c>
       <c r="F137">
-        <v>9528</v>
+        <v>6751</v>
       </c>
       <c r="G137">
-        <v>6461</v>
+        <v>5484</v>
       </c>
       <c r="H137">
-        <v>1982</v>
+        <v>1079</v>
       </c>
       <c r="I137">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="J137">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K137">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="L137">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="M137">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="N137">
-        <v>302</v>
+        <v>282</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B138">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="C138">
-        <v>3468</v>
+        <v>2622</v>
       </c>
       <c r="D138">
-        <v>11400</v>
+        <v>7732</v>
       </c>
       <c r="E138">
-        <v>12428</v>
+        <v>8662</v>
       </c>
       <c r="F138">
-        <v>11570</v>
+        <v>11232</v>
       </c>
       <c r="G138">
-        <v>6528</v>
+        <v>6147</v>
       </c>
       <c r="H138">
-        <v>1324</v>
+        <v>1159</v>
       </c>
       <c r="I138">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="J138">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="K138">
-        <v>646</v>
+        <v>827</v>
       </c>
       <c r="L138">
-        <v>300</v>
+        <v>177</v>
       </c>
       <c r="M138">
-        <v>338</v>
+        <v>180</v>
       </c>
       <c r="N138">
-        <v>334</v>
+        <v>684</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B139">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="C139">
-        <v>3920</v>
+        <v>2895</v>
       </c>
       <c r="D139">
-        <v>12962</v>
+        <v>9256</v>
       </c>
       <c r="E139">
-        <v>15195</v>
+        <v>9351</v>
       </c>
       <c r="F139">
-        <v>14107</v>
+        <v>10056</v>
       </c>
       <c r="G139">
-        <v>7472</v>
+        <v>6000</v>
       </c>
       <c r="H139">
-        <v>1270</v>
+        <v>1162</v>
       </c>
       <c r="I139">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="J139">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="K139">
-        <v>687</v>
+        <v>549</v>
       </c>
       <c r="L139">
-        <v>405</v>
+        <v>186</v>
       </c>
       <c r="M139">
-        <v>362</v>
+        <v>185</v>
       </c>
       <c r="N139">
-        <v>565</v>
+        <v>298</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B140">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="C140">
-        <v>6635</v>
+        <v>2882</v>
       </c>
       <c r="D140">
-        <v>14552</v>
+        <v>10932</v>
       </c>
       <c r="E140">
-        <v>15439</v>
+        <v>9951</v>
       </c>
       <c r="F140">
-        <v>15521</v>
+        <v>9528</v>
       </c>
       <c r="G140">
-        <v>9043</v>
+        <v>6461</v>
       </c>
       <c r="H140">
-        <v>1482</v>
+        <v>1982</v>
       </c>
       <c r="I140">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J140">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="K140">
-        <v>640</v>
+        <v>438</v>
       </c>
       <c r="L140">
-        <v>310</v>
+        <v>196</v>
       </c>
       <c r="M140">
-        <v>276</v>
+        <v>220</v>
       </c>
       <c r="N140">
-        <v>436</v>
+        <v>302</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B141">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="C141">
-        <v>5236</v>
+        <v>3468</v>
       </c>
       <c r="D141">
-        <v>15745</v>
+        <v>11400</v>
       </c>
       <c r="E141">
-        <v>15947</v>
+        <v>12428</v>
       </c>
       <c r="F141">
-        <v>17139</v>
+        <v>11570</v>
       </c>
       <c r="G141">
-        <v>10705</v>
+        <v>6528</v>
       </c>
       <c r="H141">
-        <v>2024</v>
+        <v>1324</v>
       </c>
       <c r="I141">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="J141">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K141">
-        <v>538</v>
+        <v>646</v>
       </c>
       <c r="L141">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="M141">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="N141">
-        <v>511</v>
+        <v>334</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B142">
-        <v>2100</v>
+        <v>1800</v>
       </c>
       <c r="C142">
-        <v>6896</v>
+        <v>3920</v>
       </c>
       <c r="D142">
-        <v>17693</v>
+        <v>12962</v>
       </c>
       <c r="E142">
-        <v>17353</v>
+        <v>15195</v>
       </c>
       <c r="F142">
-        <v>17863</v>
+        <v>14107</v>
       </c>
       <c r="G142">
-        <v>12416</v>
+        <v>7472</v>
       </c>
       <c r="H142">
-        <v>2293</v>
+        <v>1270</v>
       </c>
       <c r="I142">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="J142">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K142">
-        <v>1165</v>
+        <v>687</v>
       </c>
       <c r="L142">
-        <v>281</v>
+        <v>405</v>
       </c>
       <c r="M142">
-        <v>306</v>
+        <v>362</v>
       </c>
       <c r="N142">
-        <v>501</v>
+        <v>565</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B143">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="C143">
-        <v>5952</v>
+        <v>6635</v>
       </c>
       <c r="D143">
-        <v>19170</v>
+        <v>14552</v>
       </c>
       <c r="E143">
-        <v>20302</v>
+        <v>15439</v>
       </c>
       <c r="F143">
-        <v>19221</v>
+        <v>15521</v>
       </c>
       <c r="G143">
-        <v>12551</v>
+        <v>9043</v>
       </c>
       <c r="H143">
-        <v>2725</v>
+        <v>1482</v>
       </c>
       <c r="I143">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J143">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="K143">
-        <v>908</v>
+        <v>640</v>
       </c>
       <c r="L143">
-        <v>679</v>
+        <v>310</v>
       </c>
       <c r="M143">
-        <v>348</v>
+        <v>276</v>
       </c>
       <c r="N143">
-        <v>667</v>
+        <v>436</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B144">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="C144">
-        <v>6314</v>
+        <v>5236</v>
       </c>
       <c r="D144">
-        <v>21645</v>
+        <v>15745</v>
       </c>
       <c r="E144">
-        <v>20908</v>
+        <v>15947</v>
       </c>
       <c r="F144">
-        <v>23606</v>
+        <v>17139</v>
       </c>
       <c r="G144">
-        <v>14298</v>
+        <v>10705</v>
       </c>
       <c r="H144">
-        <v>3219</v>
+        <v>2024</v>
       </c>
       <c r="I144">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="J144">
-        <v>283</v>
+        <v>100</v>
       </c>
       <c r="K144">
-        <v>776</v>
+        <v>538</v>
       </c>
       <c r="L144">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="M144">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="N144">
-        <v>706</v>
+        <v>511</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B145">
-        <v>2400</v>
+        <v>2100</v>
       </c>
       <c r="C145">
-        <v>6749</v>
+        <v>6896</v>
       </c>
       <c r="D145">
-        <v>24977</v>
+        <v>17693</v>
       </c>
       <c r="E145">
-        <v>28480</v>
+        <v>17353</v>
       </c>
       <c r="F145">
-        <v>23677</v>
+        <v>17863</v>
       </c>
       <c r="G145">
-        <v>14448</v>
+        <v>12416</v>
       </c>
       <c r="H145">
-        <v>2699</v>
+        <v>2293</v>
       </c>
       <c r="I145">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J145">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K145">
-        <v>790</v>
+        <v>1165</v>
       </c>
       <c r="L145">
-        <v>411</v>
+        <v>281</v>
       </c>
       <c r="M145">
-        <v>359</v>
+        <v>306</v>
       </c>
       <c r="N145">
-        <v>520</v>
+        <v>501</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B146">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="C146">
-        <v>7957</v>
+        <v>5952</v>
       </c>
       <c r="D146">
-        <v>27743</v>
+        <v>19170</v>
       </c>
       <c r="E146">
-        <v>28475</v>
+        <v>20302</v>
       </c>
       <c r="F146">
-        <v>30965</v>
+        <v>19221</v>
       </c>
       <c r="G146">
-        <v>16239</v>
+        <v>12551</v>
       </c>
       <c r="H146">
-        <v>3015</v>
+        <v>2725</v>
       </c>
       <c r="I146">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J146">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="K146">
-        <v>857</v>
+        <v>908</v>
       </c>
       <c r="L146">
-        <v>358</v>
+        <v>679</v>
       </c>
       <c r="M146">
-        <v>466</v>
+        <v>348</v>
       </c>
       <c r="N146">
-        <v>561</v>
+        <v>667</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B147">
-        <v>2600</v>
+        <v>2300</v>
       </c>
       <c r="C147">
-        <v>8909</v>
+        <v>6314</v>
       </c>
       <c r="D147">
-        <v>30445</v>
+        <v>21645</v>
       </c>
       <c r="E147">
-        <v>30592</v>
+        <v>20908</v>
       </c>
       <c r="F147">
-        <v>27911</v>
+        <v>23606</v>
       </c>
       <c r="G147">
-        <v>17073</v>
+        <v>14298</v>
       </c>
       <c r="H147">
-        <v>2759</v>
+        <v>3219</v>
       </c>
       <c r="I147">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="J147">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="K147">
-        <v>897</v>
+        <v>776</v>
       </c>
       <c r="L147">
-        <v>669</v>
+        <v>302</v>
       </c>
       <c r="M147">
-        <v>413</v>
+        <v>327</v>
       </c>
       <c r="N147">
-        <v>664</v>
+        <v>706</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B148">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="C148">
-        <v>9177</v>
+        <v>6749</v>
       </c>
       <c r="D148">
-        <v>32682</v>
+        <v>24977</v>
       </c>
       <c r="E148">
-        <v>30217</v>
+        <v>28480</v>
       </c>
       <c r="F148">
-        <v>33107</v>
+        <v>23677</v>
       </c>
       <c r="G148">
-        <v>19408</v>
+        <v>14448</v>
       </c>
       <c r="H148">
-        <v>4112</v>
+        <v>2699</v>
       </c>
       <c r="I148">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="J148">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="K148">
-        <v>1246</v>
+        <v>790</v>
       </c>
       <c r="L148">
-        <v>339</v>
+        <v>411</v>
       </c>
       <c r="M148">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="N148">
-        <v>588</v>
+        <v>520</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B149">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="C149">
-        <v>13104</v>
+        <v>7957</v>
       </c>
       <c r="D149">
-        <v>34736</v>
+        <v>27743</v>
       </c>
       <c r="E149">
-        <v>35558</v>
+        <v>28475</v>
       </c>
       <c r="F149">
-        <v>33238</v>
+        <v>30965</v>
       </c>
       <c r="G149">
-        <v>20219</v>
+        <v>16239</v>
       </c>
       <c r="H149">
-        <v>3802</v>
+        <v>3015</v>
       </c>
       <c r="I149">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="J149">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="K149">
-        <v>764</v>
+        <v>857</v>
       </c>
       <c r="L149">
-        <v>305</v>
+        <v>358</v>
       </c>
       <c r="M149">
-        <v>638</v>
+        <v>466</v>
       </c>
       <c r="N149">
-        <v>617</v>
+        <v>561</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B150">
-        <v>2900</v>
+        <v>2600</v>
       </c>
       <c r="C150">
-        <v>11476</v>
+        <v>8909</v>
       </c>
       <c r="D150">
-        <v>37244</v>
+        <v>30445</v>
       </c>
       <c r="E150">
-        <v>35777</v>
+        <v>30592</v>
       </c>
       <c r="F150">
-        <v>39332</v>
+        <v>27911</v>
       </c>
       <c r="G150">
-        <v>24646</v>
+        <v>17073</v>
       </c>
       <c r="H150">
-        <v>4330</v>
+        <v>2759</v>
       </c>
       <c r="I150">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="J150">
-        <v>137</v>
+        <v>248</v>
       </c>
       <c r="K150">
-        <v>802</v>
+        <v>897</v>
       </c>
       <c r="L150">
-        <v>451</v>
+        <v>669</v>
       </c>
       <c r="M150">
-        <v>530</v>
+        <v>413</v>
       </c>
       <c r="N150">
-        <v>746</v>
+        <v>664</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B151">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="C151">
-        <v>10842</v>
+        <v>9177</v>
       </c>
       <c r="D151">
-        <v>38127</v>
+        <v>32682</v>
       </c>
       <c r="E151">
-        <v>41717</v>
+        <v>30217</v>
       </c>
       <c r="F151">
-        <v>43450</v>
+        <v>33107</v>
       </c>
       <c r="G151">
-        <v>24567</v>
+        <v>19408</v>
       </c>
       <c r="H151">
-        <v>6904</v>
+        <v>4112</v>
       </c>
       <c r="I151">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="J151">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="K151">
-        <v>1570</v>
+        <v>1246</v>
       </c>
       <c r="L151">
-        <v>428</v>
+        <v>339</v>
       </c>
       <c r="M151">
-        <v>551</v>
+        <v>377</v>
       </c>
       <c r="N151">
-        <v>884</v>
+        <v>588</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B152">
-        <v>3100</v>
+        <v>2800</v>
       </c>
       <c r="C152">
-        <v>11704</v>
+        <v>13104</v>
       </c>
       <c r="D152">
-        <v>41845</v>
+        <v>34736</v>
       </c>
       <c r="E152">
-        <v>41050</v>
+        <v>35558</v>
       </c>
       <c r="F152">
-        <v>41294</v>
+        <v>33238</v>
       </c>
       <c r="G152">
-        <v>24333</v>
+        <v>20219</v>
       </c>
       <c r="H152">
-        <v>4556</v>
+        <v>3802</v>
       </c>
       <c r="I152">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="J152">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="K152">
-        <v>1250</v>
+        <v>764</v>
       </c>
       <c r="L152">
-        <v>500</v>
+        <v>305</v>
       </c>
       <c r="M152">
-        <v>489</v>
+        <v>638</v>
       </c>
       <c r="N152">
-        <v>831</v>
+        <v>617</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B153">
-        <v>3200</v>
+        <v>2900</v>
       </c>
       <c r="C153">
-        <v>13171</v>
+        <v>11476</v>
       </c>
       <c r="D153">
-        <v>47133</v>
+        <v>37244</v>
       </c>
       <c r="E153">
-        <v>44458</v>
+        <v>35777</v>
       </c>
       <c r="F153">
-        <v>47543</v>
+        <v>39332</v>
       </c>
       <c r="G153">
-        <v>27692</v>
+        <v>24646</v>
       </c>
       <c r="H153">
-        <v>5006</v>
+        <v>4330</v>
       </c>
       <c r="I153">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="J153">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="K153">
-        <v>1039</v>
+        <v>802</v>
       </c>
       <c r="L153">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="M153">
-        <v>501</v>
+        <v>530</v>
       </c>
       <c r="N153">
-        <v>811</v>
+        <v>746</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B154">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="C154">
-        <v>14855</v>
+        <v>10842</v>
       </c>
       <c r="D154">
-        <v>49015</v>
+        <v>38127</v>
       </c>
       <c r="E154">
-        <v>51529</v>
+        <v>41717</v>
       </c>
       <c r="F154">
-        <v>54514</v>
+        <v>43450</v>
       </c>
       <c r="G154">
-        <v>32492</v>
+        <v>24567</v>
       </c>
       <c r="H154">
-        <v>5071</v>
+        <v>6904</v>
       </c>
       <c r="I154">
-        <v>254</v>
+        <v>86</v>
       </c>
       <c r="J154">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="K154">
-        <v>818</v>
+        <v>1570</v>
       </c>
       <c r="L154">
-        <v>815</v>
+        <v>428</v>
       </c>
       <c r="M154">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="N154">
-        <v>812</v>
+        <v>884</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B155">
-        <v>3400</v>
+        <v>3100</v>
       </c>
       <c r="C155">
-        <v>14491</v>
+        <v>11704</v>
       </c>
       <c r="D155">
-        <v>50390</v>
+        <v>41845</v>
       </c>
       <c r="E155">
-        <v>52239</v>
+        <v>41050</v>
       </c>
       <c r="F155">
-        <v>54618</v>
+        <v>41294</v>
       </c>
       <c r="G155">
-        <v>31882</v>
+        <v>24333</v>
       </c>
       <c r="H155">
-        <v>5463</v>
+        <v>4556</v>
       </c>
       <c r="I155">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="J155">
         <v>164</v>
       </c>
       <c r="K155">
-        <v>950</v>
+        <v>1250</v>
       </c>
       <c r="L155">
-        <v>526</v>
+        <v>500</v>
       </c>
       <c r="M155">
-        <v>577</v>
+        <v>489</v>
       </c>
       <c r="N155">
-        <v>711</v>
+        <v>831</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B156">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="C156">
-        <v>16569</v>
+        <v>13171</v>
       </c>
       <c r="D156">
-        <v>57091</v>
+        <v>47133</v>
       </c>
       <c r="E156">
-        <v>57363</v>
+        <v>44458</v>
       </c>
       <c r="F156">
-        <v>57701</v>
+        <v>47543</v>
       </c>
       <c r="G156">
-        <v>35624</v>
+        <v>27692</v>
       </c>
       <c r="H156">
-        <v>6526</v>
+        <v>5006</v>
       </c>
       <c r="I156">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J156">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="K156">
-        <v>1078</v>
+        <v>1039</v>
       </c>
       <c r="L156">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="M156">
-        <v>529</v>
+        <v>501</v>
       </c>
       <c r="N156">
-        <v>951</v>
+        <v>811</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B157">
-        <v>3600</v>
+        <v>3300</v>
       </c>
       <c r="C157">
-        <v>21600</v>
+        <v>14855</v>
       </c>
       <c r="D157">
-        <v>58170</v>
+        <v>49015</v>
       </c>
       <c r="E157">
-        <v>59007</v>
+        <v>51529</v>
       </c>
       <c r="F157">
-        <v>62535</v>
+        <v>54514</v>
       </c>
       <c r="G157">
-        <v>33639</v>
+        <v>32492</v>
       </c>
       <c r="H157">
-        <v>6099</v>
+        <v>5071</v>
       </c>
       <c r="I157">
-        <v>86</v>
+        <v>254</v>
       </c>
       <c r="J157">
-        <v>403</v>
+        <v>282</v>
       </c>
       <c r="K157">
-        <v>2174</v>
+        <v>818</v>
       </c>
       <c r="L157">
-        <v>517</v>
+        <v>815</v>
       </c>
       <c r="M157">
-        <v>529</v>
+        <v>548</v>
       </c>
       <c r="N157">
-        <v>825</v>
+        <v>812</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B158">
-        <v>3700</v>
+        <v>3400</v>
       </c>
       <c r="C158">
-        <v>18016</v>
+        <v>14491</v>
       </c>
       <c r="D158">
-        <v>61079</v>
+        <v>50390</v>
       </c>
       <c r="E158">
-        <v>64590</v>
+        <v>52239</v>
       </c>
       <c r="F158">
-        <v>62590</v>
+        <v>54618</v>
       </c>
       <c r="G158">
-        <v>39690</v>
+        <v>31882</v>
       </c>
       <c r="H158">
-        <v>6860</v>
+        <v>5463</v>
       </c>
       <c r="I158">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J158">
-        <v>347</v>
+        <v>164</v>
       </c>
       <c r="K158">
-        <v>1484</v>
+        <v>950</v>
       </c>
       <c r="L158">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="M158">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="N158">
-        <v>943</v>
+        <v>711</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B159">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="C159">
-        <v>18256</v>
+        <v>16569</v>
       </c>
       <c r="D159">
-        <v>65804</v>
+        <v>57091</v>
       </c>
       <c r="E159">
-        <v>64192</v>
+        <v>57363</v>
       </c>
       <c r="F159">
-        <v>63038</v>
+        <v>57701</v>
       </c>
       <c r="G159">
-        <v>36749</v>
+        <v>35624</v>
       </c>
       <c r="H159">
-        <v>6850</v>
+        <v>6526</v>
       </c>
       <c r="I159">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J159">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="K159">
-        <v>1197</v>
+        <v>1078</v>
       </c>
       <c r="L159">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="M159">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="N159">
-        <v>1168</v>
+        <v>951</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B160">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="C160">
-        <v>22647</v>
+        <v>21600</v>
       </c>
       <c r="D160">
-        <v>74339</v>
+        <v>58170</v>
       </c>
       <c r="E160">
-        <v>69681</v>
+        <v>59007</v>
       </c>
       <c r="F160">
-        <v>68075</v>
+        <v>62535</v>
       </c>
       <c r="G160">
-        <v>41220</v>
+        <v>33639</v>
       </c>
       <c r="H160">
-        <v>7131</v>
+        <v>6099</v>
       </c>
       <c r="I160">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J160">
-        <v>240</v>
+        <v>403</v>
       </c>
       <c r="K160">
-        <v>1418</v>
+        <v>2174</v>
       </c>
       <c r="L160">
-        <v>552</v>
+        <v>517</v>
       </c>
       <c r="M160">
-        <v>663</v>
+        <v>529</v>
       </c>
       <c r="N160">
-        <v>876</v>
+        <v>825</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B161">
+        <v>3700</v>
+      </c>
+      <c r="C161">
+        <v>18016</v>
+      </c>
+      <c r="D161">
+        <v>61079</v>
+      </c>
+      <c r="E161">
+        <v>64590</v>
+      </c>
+      <c r="F161">
+        <v>62590</v>
+      </c>
+      <c r="G161">
+        <v>39690</v>
+      </c>
+      <c r="H161">
+        <v>6860</v>
+      </c>
+      <c r="I161">
+        <v>82</v>
+      </c>
+      <c r="J161">
+        <v>347</v>
+      </c>
+      <c r="K161">
+        <v>1484</v>
+      </c>
+      <c r="L161">
+        <v>543</v>
+      </c>
+      <c r="M161">
+        <v>580</v>
+      </c>
+      <c r="N161">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>16</v>
+      </c>
+      <c r="B162">
+        <v>3800</v>
+      </c>
+      <c r="C162">
+        <v>18256</v>
+      </c>
+      <c r="D162">
+        <v>65804</v>
+      </c>
+      <c r="E162">
+        <v>64192</v>
+      </c>
+      <c r="F162">
+        <v>63038</v>
+      </c>
+      <c r="G162">
+        <v>36749</v>
+      </c>
+      <c r="H162">
+        <v>6850</v>
+      </c>
+      <c r="I162">
+        <v>83</v>
+      </c>
+      <c r="J162">
+        <v>213</v>
+      </c>
+      <c r="K162">
+        <v>1197</v>
+      </c>
+      <c r="L162">
+        <v>493</v>
+      </c>
+      <c r="M162">
+        <v>544</v>
+      </c>
+      <c r="N162">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>16</v>
+      </c>
+      <c r="B163">
+        <v>3900</v>
+      </c>
+      <c r="C163">
+        <v>20647</v>
+      </c>
+      <c r="D163">
+        <v>66434</v>
+      </c>
+      <c r="E163">
+        <v>69681</v>
+      </c>
+      <c r="F163">
+        <v>68075</v>
+      </c>
+      <c r="G163">
+        <v>41220</v>
+      </c>
+      <c r="H163">
+        <v>7131</v>
+      </c>
+      <c r="I163">
+        <v>84</v>
+      </c>
+      <c r="J163">
+        <v>240</v>
+      </c>
+      <c r="K163">
+        <v>1418</v>
+      </c>
+      <c r="L163">
+        <v>552</v>
+      </c>
+      <c r="M163">
+        <v>663</v>
+      </c>
+      <c r="N163">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>16</v>
+      </c>
+      <c r="B164">
         <v>4000</v>
       </c>
-      <c r="C161">
+      <c r="C164">
+        <v>18256</v>
+      </c>
+      <c r="D164">
+        <v>68568</v>
+      </c>
+      <c r="E164">
+        <v>68544</v>
+      </c>
+      <c r="F164">
+        <v>67532</v>
+      </c>
+      <c r="G164">
+        <v>37611</v>
+      </c>
+      <c r="H164">
+        <v>7275</v>
+      </c>
+      <c r="I164">
+        <v>87</v>
+      </c>
+      <c r="J164">
+        <v>263</v>
+      </c>
+      <c r="K164">
+        <v>1375</v>
+      </c>
+      <c r="L164">
+        <v>522</v>
+      </c>
+      <c r="M164">
+        <v>564</v>
+      </c>
+      <c r="N164">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>16</v>
+      </c>
+      <c r="B165">
+        <v>4100</v>
+      </c>
+      <c r="C165">
         <v>19955</v>
       </c>
-      <c r="D161">
+      <c r="D165">
         <v>75796</v>
       </c>
-      <c r="E161">
+      <c r="E165">
         <v>72717</v>
       </c>
-      <c r="F161">
+      <c r="F165">
         <v>74790</v>
       </c>
-      <c r="G161">
+      <c r="G165">
         <v>47126</v>
       </c>
-      <c r="H161">
+      <c r="H165">
         <v>7667</v>
       </c>
-      <c r="I161">
+      <c r="I165">
         <v>74</v>
       </c>
-      <c r="J161">
+      <c r="J165">
         <v>255</v>
       </c>
-      <c r="K161">
+      <c r="K165">
         <v>1085</v>
       </c>
-      <c r="L161">
+      <c r="L165">
         <v>555</v>
       </c>
-      <c r="M161">
+      <c r="M165">
         <v>701</v>
       </c>
-      <c r="N161">
+      <c r="N165">
         <v>1187</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Отчёт/Second - first version.xlsx
+++ b/Отчёт/Second - first version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Construction and analysis of algorithms\SortAlgorithms\Отчёт\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF832C6-9E25-4EF2-9744-58F7843EED8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B35A913-4926-44FC-B3B6-0CC4F37020C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4675,19 +4675,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>From </a:t>
+              <a:t>From 0 to </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>1</a:t>
+              <a:t>4</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t> to </a:t>
+              <a:t>00</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>4100</a:t>
+              <a:t>0</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -19323,8 +19323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" topLeftCell="AQ16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AN63" sqref="AN63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
